--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C4196E-CEAC-4257-8C8A-410F34553904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A6C8A-FCFC-42E5-B3AA-8938F4687B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C_16.1'!$B$5:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -280,13 +280,13 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +559,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -574,7 +574,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -609,13 +609,13 @@
       <c r="B7" s="9">
         <v>45383</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>15233</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>7831</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>17877</v>
       </c>
       <c r="F7" s="6">
@@ -643,13 +643,13 @@
       <c r="B9" s="9">
         <v>45323</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>16125</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>10127</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>14025</v>
       </c>
       <c r="F9" s="6">
@@ -677,13 +677,13 @@
       <c r="B11" s="9">
         <v>45261</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>16074</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>9632</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>10246</v>
       </c>
       <c r="F11" s="6">
@@ -711,13 +711,13 @@
       <c r="B13" s="9">
         <v>45200</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>18245</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>12477</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>18195</v>
       </c>
       <c r="F13" s="6">
@@ -745,13 +745,13 @@
       <c r="B15" s="9">
         <v>45139</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>18942</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>15065</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>18054</v>
       </c>
       <c r="F15" s="6">
@@ -779,13 +779,13 @@
       <c r="B17" s="9">
         <v>45078</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>16413</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>11954</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>18294</v>
       </c>
       <c r="F17" s="6">
@@ -813,13 +813,13 @@
       <c r="B19" s="9">
         <v>45017</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>16601</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>9988</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>14720</v>
       </c>
       <c r="F19" s="6">
@@ -847,13 +847,13 @@
       <c r="B21" s="9">
         <v>44958</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>19810</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>10694</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>15018</v>
       </c>
       <c r="F21" s="6">
@@ -881,13 +881,13 @@
       <c r="B23" s="9">
         <v>44896</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>15839</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>8612</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>8142</v>
       </c>
       <c r="F23" s="6">
@@ -915,13 +915,13 @@
       <c r="B25" s="9">
         <v>44835</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>14818</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>7352</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="12">
         <v>10681</v>
       </c>
       <c r="F25" s="6">
@@ -949,13 +949,13 @@
       <c r="B27" s="9">
         <v>44774</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <v>25015</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>11458</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>16938</v>
       </c>
       <c r="F27" s="6">
@@ -983,13 +983,13 @@
       <c r="B29" s="9">
         <v>44713</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>23787</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="12">
         <v>10984</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="12">
         <v>15887</v>
       </c>
       <c r="F29" s="6">
@@ -1017,13 +1017,13 @@
       <c r="B31" s="9">
         <v>44652</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>25871</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="12">
         <v>11168</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>14111</v>
       </c>
       <c r="F31" s="6">
@@ -1051,13 +1051,13 @@
       <c r="B33" s="9">
         <v>44593</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>29561</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>13707</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="12">
         <v>13302</v>
       </c>
       <c r="F33" s="6">
@@ -1085,13 +1085,13 @@
       <c r="B35" s="9">
         <v>44531</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="12">
         <v>34497</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="12">
         <v>14016</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="12">
         <v>9978</v>
       </c>
       <c r="F35" s="6">
@@ -1119,13 +1119,13 @@
       <c r="B37" s="9">
         <v>44470</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="12">
         <v>37710</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="12">
         <v>18044</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="12">
         <v>13588</v>
       </c>
       <c r="F37" s="6">
@@ -1153,13 +1153,13 @@
       <c r="B39" s="9">
         <v>44409</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="12">
         <v>37947</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="12">
         <v>25010</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="12">
         <v>13741</v>
       </c>
       <c r="F39" s="6">
@@ -1187,13 +1187,13 @@
       <c r="B41" s="9">
         <v>44348</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="12">
         <v>22949</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="12">
         <v>16199</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="12">
         <v>13843</v>
       </c>
       <c r="F41" s="6">
@@ -1221,13 +1221,13 @@
       <c r="B43" s="9">
         <v>44287</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>4261</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="12">
         <v>3948</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>12412</v>
       </c>
       <c r="F43" s="6">
@@ -1255,13 +1255,13 @@
       <c r="B45" s="9">
         <v>44228</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>2679</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="12">
         <v>3031</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="12">
         <v>11868</v>
       </c>
       <c r="F45" s="6">
@@ -1289,13 +1289,13 @@
       <c r="B47" s="9">
         <v>44166</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="12">
         <v>2470</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="12">
         <v>1164</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="12">
         <v>10463</v>
       </c>
       <c r="F47" s="6">
@@ -1323,13 +1323,13 @@
       <c r="B49" s="9">
         <v>44105</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="12">
         <v>2341</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="12">
         <v>1006</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="12">
         <v>11419</v>
       </c>
       <c r="F49" s="6">
@@ -1357,13 +1357,13 @@
       <c r="B51" s="9">
         <v>44044</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="12">
         <v>1251</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="12">
         <v>731</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="12">
         <v>7354</v>
       </c>
       <c r="F51" s="6">
@@ -1391,13 +1391,13 @@
       <c r="B53" s="9">
         <v>43983</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="12">
         <v>30</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="12">
         <v>8</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="12">
         <v>1683</v>
       </c>
       <c r="F53" s="6">
@@ -1425,13 +1425,13 @@
       <c r="B55" s="9">
         <v>43922</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="12">
         <v>43</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="12">
         <v>6</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="12">
         <v>346</v>
       </c>
       <c r="F55" s="6">
@@ -1459,13 +1459,13 @@
       <c r="B57" s="9">
         <v>43862</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="12">
         <v>12796</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="12">
         <v>6835</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="12">
         <v>10803</v>
       </c>
       <c r="F57" s="6">
@@ -1493,13 +1493,13 @@
       <c r="B59" s="9">
         <v>43800</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="12">
         <v>8853</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="12">
         <v>4169</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="12">
         <v>10069</v>
       </c>
       <c r="F59" s="6">
@@ -1527,13 +1527,13 @@
       <c r="B61" s="9">
         <v>43739</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="12">
         <v>12085</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="12">
         <v>6456</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="12">
         <v>13059</v>
       </c>
       <c r="F61" s="6">
@@ -1561,13 +1561,13 @@
       <c r="B63" s="9">
         <v>43678</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="12">
         <v>12571</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="12">
         <v>6159</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="12">
         <v>12065</v>
       </c>
       <c r="F63" s="6">
@@ -1595,13 +1595,13 @@
       <c r="B65" s="9">
         <v>43617</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="12">
         <v>16245</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="12">
         <v>7479</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="12">
         <v>10925</v>
       </c>
       <c r="F65" s="6">
@@ -1629,13 +1629,13 @@
       <c r="B67" s="9">
         <v>43556</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="12">
         <v>16745</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="12">
         <v>7823</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="12">
         <v>11795</v>
       </c>
       <c r="F67" s="6">
@@ -1663,13 +1663,13 @@
       <c r="B69" s="9">
         <v>43497</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="12">
         <v>19641</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="12">
         <v>8694</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="12">
         <v>9435</v>
       </c>
       <c r="F69" s="6">
@@ -1697,13 +1697,13 @@
       <c r="B71" s="9">
         <v>43435</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="12">
         <v>10474</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="12">
         <v>5253</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="12">
         <v>9205</v>
       </c>
       <c r="F71" s="6">
@@ -1731,13 +1731,13 @@
       <c r="B73" s="9">
         <v>43374</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="12">
         <v>17364</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="12">
         <v>8327</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="12">
         <v>15919</v>
       </c>
       <c r="F73" s="6">
@@ -1765,13 +1765,13 @@
       <c r="B75" s="9">
         <v>43313</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="12">
         <v>20125</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="12">
         <v>8801</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="12">
         <v>16023</v>
       </c>
       <c r="F75" s="6">
@@ -1799,13 +1799,13 @@
       <c r="B77" s="9">
         <v>43252</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="12">
         <v>17132</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="12">
         <v>7341</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="12">
         <v>9679</v>
       </c>
       <c r="F77" s="6">
@@ -1833,13 +1833,13 @@
       <c r="B79" s="9">
         <v>43191</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="12">
         <v>16794</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="12">
         <v>7072</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="12">
         <v>7578</v>
       </c>
       <c r="F79" s="6">
@@ -1867,13 +1867,13 @@
       <c r="B81" s="9">
         <v>43132</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="12">
         <v>13619</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="12">
         <v>5595</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="12">
         <v>6470</v>
       </c>
       <c r="F81" s="6">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A6C8A-FCFC-42E5-B3AA-8938F4687B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329DDF8-F30E-4773-8774-DD5DCE1B3BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -143,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -167,48 +167,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -252,12 +212,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,38 +236,119 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -309,6 +359,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:F82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:F82" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{312D8C64-CD68-4305-821F-7C74244FB9A1}" name="Periodo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{6720E610-45CA-4035-81AA-A9D2B5531551}" name="Nacional" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{101D3A95-7027-4B26-805E-DF4535FD72E6}" name="Internacional" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5313C991-AD63-41E4-B2DB-3AA9F21C0D63}" name="Carga" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CDAAB265-FA76-48CD-AF13-00FB671C2160}" name="Pasaje" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,7 +615,7 @@
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="8.19921875" customWidth="1"/>
     <col min="6" max="6" width="9.796875" customWidth="1"/>
   </cols>
@@ -559,22 +629,22 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,46 +654,46 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="10">
+      <c r="B6" s="16">
         <v>45413</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <v>13746</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>7057</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="17">
         <v>16980</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="17">
         <v>2065</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>45383</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="15">
         <v>15233</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="15">
         <v>7831</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>17877</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="15">
         <v>1889</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>45352</v>
       </c>
       <c r="C8" s="4">
@@ -635,63 +705,63 @@
       <c r="E8" s="4">
         <v>12776</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1446</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>45323</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="15">
         <v>16125</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="15">
         <v>10127</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>14025</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="15">
         <v>1530</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>45292</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>16315</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>10849</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>14109</v>
       </c>
       <c r="F10" s="5">
         <v>1279</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="9">
+    <row r="11" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
         <v>45261</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="19">
         <v>16074</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="19">
         <v>9632</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="19">
         <v>10246</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="19">
         <v>2076</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="10">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11">
         <v>45231</v>
       </c>
       <c r="C12" s="4">
@@ -703,29 +773,29 @@
       <c r="E12" s="4">
         <v>18379</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>2145</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12">
         <v>45200</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="15">
         <v>18245</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="15">
         <v>12477</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="15">
         <v>18195</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="15">
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
         <v>45170</v>
       </c>
       <c r="C14" s="4">
@@ -737,29 +807,29 @@
       <c r="E14" s="4">
         <v>17644</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1774</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12">
         <v>45139</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="15">
         <v>18942</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="15">
         <v>15065</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>18054</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="15">
         <v>1669</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="10">
+    <row r="16" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11">
         <v>45108</v>
       </c>
       <c r="C16" s="4">
@@ -771,29 +841,29 @@
       <c r="E16" s="4">
         <v>18767</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1741</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="9">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="12">
         <v>45078</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="15">
         <v>16413</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="15">
         <v>11954</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>18294</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="15">
         <v>1735</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="10">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11">
         <v>45047</v>
       </c>
       <c r="C18" s="4">
@@ -805,29 +875,29 @@
       <c r="E18" s="4">
         <v>17676</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1651</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="9">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="12">
         <v>45017</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="15">
         <v>16601</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="15">
         <v>9988</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>14720</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="15">
         <v>1205</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="10">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11">
         <v>44986</v>
       </c>
       <c r="C20" s="4">
@@ -839,63 +909,63 @@
       <c r="E20" s="4">
         <v>17877</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>1976</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="9">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="12">
         <v>44958</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="15">
         <v>19810</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="15">
         <v>10694</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="15">
         <v>15018</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="15">
         <v>1364</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="10">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="13">
         <v>44927</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>20785</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>11121</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>13781</v>
       </c>
       <c r="F22" s="5">
         <v>1205</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="9">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="18">
         <v>44896</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="19">
         <v>15839</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="19">
         <v>8612</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="19">
         <v>8142</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="19">
         <v>1632</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="10">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="11">
         <v>44866</v>
       </c>
       <c r="C24" s="4">
@@ -907,29 +977,29 @@
       <c r="E24" s="4">
         <v>11149</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>1446</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="9">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="12">
         <v>44835</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="15">
         <v>14818</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="15">
         <v>7352</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="15">
         <v>10681</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="15">
         <v>1268</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11">
         <v>44805</v>
       </c>
       <c r="C26" s="4">
@@ -941,29 +1011,29 @@
       <c r="E26" s="4">
         <v>14678</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>1536</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="9">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="12">
         <v>44774</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="15">
         <v>25015</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="15">
         <v>11458</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>16938</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="15">
         <v>1874</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="10">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="11">
         <v>44743</v>
       </c>
       <c r="C28" s="4">
@@ -975,29 +1045,29 @@
       <c r="E28" s="4">
         <v>9659</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="9">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12">
         <v>44713</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="15">
         <v>23787</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="15">
         <v>10984</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="15">
         <v>15887</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="15">
         <v>1588</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="10">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="11">
         <v>44682</v>
       </c>
       <c r="C30" s="4">
@@ -1009,29 +1079,29 @@
       <c r="E30" s="4">
         <v>16025</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="9">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="12">
         <v>44652</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="15">
         <v>25871</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="15">
         <v>11168</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="15">
         <v>14111</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="15">
         <v>1231</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="10">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11">
         <v>44621</v>
       </c>
       <c r="C32" s="4">
@@ -1043,63 +1113,63 @@
       <c r="E32" s="4">
         <v>15496</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>1649</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="9">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="12">
         <v>44593</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="15">
         <v>29561</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="15">
         <v>13707</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="15">
         <v>13302</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="15">
         <v>1058</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="10">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13">
         <v>44562</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>30971</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>13531</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>11148</v>
       </c>
       <c r="F34" s="5">
         <v>808</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="9">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="18">
         <v>44531</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="19">
         <v>34497</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="19">
         <v>14016</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="19">
         <v>9978</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="19">
         <v>1197</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="10">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
         <v>44501</v>
       </c>
       <c r="C36" s="4">
@@ -1111,29 +1181,29 @@
       <c r="E36" s="4">
         <v>13348</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>1277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="9">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="12">
         <v>44470</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="15">
         <v>37710</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="15">
         <v>18044</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="15">
         <v>13588</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="15">
         <v>1267</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
         <v>44440</v>
       </c>
       <c r="C38" s="4">
@@ -1145,29 +1215,29 @@
       <c r="E38" s="4">
         <v>13621</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>1378</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="9">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="12">
         <v>44409</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="15">
         <v>37947</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="15">
         <v>25010</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="15">
         <v>13741</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="15">
         <v>1059</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="10">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11">
         <v>44378</v>
       </c>
       <c r="C40" s="4">
@@ -1179,29 +1249,29 @@
       <c r="E40" s="4">
         <v>14638</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>1187</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="9">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="12">
         <v>44348</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="15">
         <v>22949</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="15">
         <v>16199</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="15">
         <v>13843</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="15">
         <v>1059</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="10">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="11">
         <v>44317</v>
       </c>
       <c r="C42" s="4">
@@ -1213,29 +1283,29 @@
       <c r="E42" s="4">
         <v>12434</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>997</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="9">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12">
         <v>44287</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="15">
         <v>4261</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="15">
         <v>3948</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="15">
         <v>12412</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="15">
         <v>972</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="10">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="11">
         <v>44256</v>
       </c>
       <c r="C44" s="4">
@@ -1247,63 +1317,63 @@
       <c r="E44" s="4">
         <v>14456</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>1209</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="9">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="12">
         <v>44228</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="15">
         <v>2679</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="15">
         <v>3031</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="15">
         <v>11868</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="15">
         <v>890</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="10">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13">
         <v>44197</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>1611</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>1451</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>8335</v>
       </c>
       <c r="F46" s="5">
         <v>580</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="9">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="18">
         <v>44166</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="19">
         <v>2470</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="19">
         <v>1164</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="19">
         <v>10463</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="19">
         <v>1409</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="10">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11">
         <v>44136</v>
       </c>
       <c r="C48" s="4">
@@ -1315,29 +1385,29 @@
       <c r="E48" s="4">
         <v>9968</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="4">
         <v>946</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="9">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="12">
         <v>44105</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="15">
         <v>2341</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="15">
         <v>1006</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="15">
         <v>11419</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="15">
         <v>779</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="11">
         <v>44075</v>
       </c>
       <c r="C50" s="4">
@@ -1349,29 +1419,29 @@
       <c r="E50" s="4">
         <v>9904</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="4">
         <v>663</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="9">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="12">
         <v>44044</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="15">
         <v>1251</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="15">
         <v>731</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="15">
         <v>7354</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="15">
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="10">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="11">
         <v>44013</v>
       </c>
       <c r="C52" s="4">
@@ -1383,29 +1453,29 @@
       <c r="E52" s="4">
         <v>5012</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="9">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="12">
         <v>43983</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="15">
         <v>30</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="15">
         <v>8</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="15">
         <v>1683</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="15">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="10">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="11">
         <v>43952</v>
       </c>
       <c r="C54" s="4">
@@ -1417,29 +1487,29 @@
       <c r="E54" s="4">
         <v>346</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="9">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="12">
         <v>43922</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="15">
         <v>43</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="15">
         <v>6</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="15">
         <v>346</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="10">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="11">
         <v>43891</v>
       </c>
       <c r="C56" s="4">
@@ -1451,63 +1521,63 @@
       <c r="E56" s="4">
         <v>10672</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <v>1177</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="9">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="12">
         <v>43862</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="15">
         <v>12796</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="15">
         <v>6835</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="15">
         <v>10803</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="15">
         <v>1368</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="10">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="13">
         <v>43831</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="5">
         <v>11782</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>6655</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="5">
         <v>9385</v>
       </c>
       <c r="F58" s="5">
         <v>1073</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="9">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="18">
         <v>43800</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="19">
         <v>8853</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="19">
         <v>4169</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="19">
         <v>10069</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="19">
         <v>2020</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="10">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="11">
         <v>43770</v>
       </c>
       <c r="C60" s="4">
@@ -1519,29 +1589,29 @@
       <c r="E60" s="4">
         <v>11623</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="4">
         <v>1528</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="9">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="12">
         <v>43739</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="15">
         <v>12085</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="15">
         <v>6456</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="15">
         <v>13059</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="15">
         <v>1688</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="11">
         <v>43709</v>
       </c>
       <c r="C62" s="4">
@@ -1553,29 +1623,29 @@
       <c r="E62" s="4">
         <v>10701</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>1150</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="9">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="12">
         <v>43678</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="15">
         <v>12571</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="15">
         <v>6159</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="15">
         <v>12065</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="15">
         <v>1391</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="10">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="11">
         <v>43647</v>
       </c>
       <c r="C64" s="4">
@@ -1587,29 +1657,29 @@
       <c r="E64" s="4">
         <v>14287</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <v>1994</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="9">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="12">
         <v>43617</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="15">
         <v>16245</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="15">
         <v>7479</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="15">
         <v>10925</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="15">
         <v>1410</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="10">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="11">
         <v>43586</v>
       </c>
       <c r="C66" s="4">
@@ -1621,29 +1691,29 @@
       <c r="E66" s="4">
         <v>13047</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>1547</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="9">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="12">
         <v>43556</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="15">
         <v>16745</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="15">
         <v>7823</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="15">
         <v>11795</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="15">
         <v>1895</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="10">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="11">
         <v>43525</v>
       </c>
       <c r="C68" s="4">
@@ -1655,63 +1725,63 @@
       <c r="E68" s="4">
         <v>10904</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="4">
         <v>1429</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="9">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12">
         <v>43497</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="15">
         <v>19641</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="15">
         <v>8694</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="15">
         <v>9435</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="15">
         <v>1209</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="10">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="13">
         <v>43466</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="5">
         <v>18879</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <v>9175</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="5">
         <v>8943</v>
       </c>
       <c r="F70" s="5">
         <v>1179</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="9">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="12">
         <v>43435</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="6">
         <v>10474</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="6">
         <v>5253</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="6">
         <v>9205</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="15">
         <v>1777</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="10">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="11">
         <v>43405</v>
       </c>
       <c r="C72" s="4">
@@ -1723,29 +1793,29 @@
       <c r="E72" s="4">
         <v>14439</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <v>2142</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="9">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="12">
         <v>43374</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="6">
         <v>17364</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="6">
         <v>8327</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="6">
         <v>15919</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73" s="15">
         <v>1884</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="11">
         <v>43344</v>
       </c>
       <c r="C74" s="4">
@@ -1757,29 +1827,29 @@
       <c r="E74" s="4">
         <v>13010</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <v>1620</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="9">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="12">
         <v>43313</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="6">
         <v>20125</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="6">
         <v>8801</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="6">
         <v>16023</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75" s="15">
         <v>1599</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="10">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="11">
         <v>43282</v>
       </c>
       <c r="C76" s="4">
@@ -1791,29 +1861,29 @@
       <c r="E76" s="4">
         <v>17861</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <v>1778</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="9">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="12">
         <v>43252</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="6">
         <v>17132</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="6">
         <v>7341</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="6">
         <v>9679</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77" s="15">
         <v>1501</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="10">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="11">
         <v>43221</v>
       </c>
       <c r="C78" s="4">
@@ -1825,29 +1895,29 @@
       <c r="E78" s="4">
         <v>8373</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <v>1119</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="9">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="12">
         <v>43191</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="6">
         <v>16794</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="6">
         <v>7072</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="6">
         <v>7578</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="15">
         <v>1053</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="10">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="11">
         <v>43160</v>
       </c>
       <c r="C80" s="4">
@@ -1859,41 +1929,41 @@
       <c r="E80" s="4">
         <v>7412</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="4">
         <v>995</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="9">
+    <row r="81" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="12">
         <v>43132</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="6">
         <v>13619</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="6">
         <v>5595</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="6">
         <v>6470</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81" s="15">
         <v>910</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="11">
         <v>43101</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="4">
         <v>14530</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>6118</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="4">
         <v>5087</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="4">
         <v>1051</v>
       </c>
     </row>
@@ -1913,12 +1983,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="2">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF65D71-36BE-4738-AC20-89C40B3F74E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E766A0-8E4E-4E6E-A799-CB40174EF166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -121,33 +121,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +155,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -361,7 +361,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -397,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G86" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G86" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G87" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G87" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -421,7 +421,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,28 +429,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -459,14 +459,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -641,33 +641,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I89"/>
+  <dimension ref="B2:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.09765625" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="8.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="15" t="s">
@@ -681,7 +680,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
@@ -701,1639 +700,1659 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
         <v>2024</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9692</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4550</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18603</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3">
-        <v>9033</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4115</v>
-      </c>
-      <c r="F6" s="3">
-        <v>17339</v>
-      </c>
-      <c r="G6" s="3">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="8">
+      <c r="D7" s="3">
+        <v>9018</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4096</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16205</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5">
-        <v>10812</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4981</v>
-      </c>
-      <c r="F7" s="5">
-        <v>24464</v>
-      </c>
-      <c r="G7" s="5">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="9">
+      <c r="D8" s="5">
+        <v>10804</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4975</v>
+      </c>
+      <c r="F8" s="5">
+        <v>17445</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>11880</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5451</v>
-      </c>
-      <c r="F8" s="3">
-        <v>21401</v>
-      </c>
-      <c r="G8" s="3">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="8">
+      <c r="D9" s="3">
+        <v>11877</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5445</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19294</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5">
-        <v>11468</v>
-      </c>
-      <c r="E9" s="5">
-        <v>4669</v>
-      </c>
-      <c r="F9" s="5">
-        <v>18885</v>
-      </c>
-      <c r="G9" s="5">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="9">
+      <c r="D10" s="5">
+        <v>11462</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4666</v>
+      </c>
+      <c r="F10" s="5">
+        <v>17555</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
-        <v>13717</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7033</v>
-      </c>
-      <c r="F10" s="3">
-        <v>19876</v>
-      </c>
-      <c r="G10" s="3">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="8">
+      <c r="D11" s="3">
+        <v>13712</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7028</v>
+      </c>
+      <c r="F11" s="3">
+        <v>16980</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
-        <v>15166</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7795</v>
-      </c>
-      <c r="F11" s="5">
-        <v>18546</v>
-      </c>
-      <c r="G11" s="5">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="9">
+      <c r="D12" s="5">
+        <v>15165</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7794</v>
+      </c>
+      <c r="F12" s="5">
+        <v>17877</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
-        <v>14591</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8381</v>
-      </c>
-      <c r="F12" s="3">
-        <v>16265</v>
-      </c>
-      <c r="G12" s="3">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="8">
+      <c r="D13" s="3">
+        <v>14590</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8379</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12776</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
-        <v>16103</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10118</v>
-      </c>
-      <c r="F13" s="5">
-        <v>14445</v>
-      </c>
-      <c r="G13" s="5">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="10">
+      <c r="D14" s="5">
+        <v>16101</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10117</v>
+      </c>
+      <c r="F14" s="5">
+        <v>14025</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4">
-        <v>16283</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10837</v>
-      </c>
-      <c r="F14" s="4">
-        <v>16476</v>
-      </c>
-      <c r="G14" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="11">
+      <c r="D15" s="4">
+        <v>16280</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10833</v>
+      </c>
+      <c r="F15" s="4">
+        <v>14109</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>2023</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>16074</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>9632</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>10246</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G16" s="7">
         <v>2076</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
         <v>2023</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>17017</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>10716</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>18379</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>2145</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
         <v>2023</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D18" s="5">
         <v>18245</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="5">
         <v>12477</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>18195</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>2046</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>18826</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>13689</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>17644</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>1774</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>18942</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>15065</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>18054</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <v>1669</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="9">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>17069</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>13344</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>18767</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>1741</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D22" s="5">
         <v>16413</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>11954</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>18294</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>1735</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>20351</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>13405</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>17676</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>1651</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>16601</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>9988</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>14720</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>1205</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="9">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>22170</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>12166</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>17877</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>1976</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <v>19810</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <v>10694</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <v>15018</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <v>1364</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D27" s="4">
         <v>20785</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E27" s="4">
         <v>11121</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>13781</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>1205</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="11">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
         <v>2022</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>15839</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>8612</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>8142</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G28" s="7">
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
         <v>2022</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>14354</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E29" s="3">
         <v>6729</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <v>11149</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>1446</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8">
         <v>2022</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <v>14818</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <v>7352</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <v>10681</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <v>1268</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>23109</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>12117</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F31" s="3">
         <v>14678</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>1536</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <v>25015</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <v>11458</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <v>16938</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <v>1874</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="9">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="3">
         <v>12756</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E33" s="3">
         <v>6225</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>9659</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G33" s="3">
         <v>809</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <v>23787</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>10984</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <v>15887</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="5">
         <v>1588</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="3">
         <v>23831</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E35" s="3">
         <v>11116</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>16025</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G35" s="3">
         <v>1326</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <v>25871</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <v>11168</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <v>14111</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <v>1231</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="9">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D37" s="3">
         <v>30033</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E37" s="3">
         <v>13257</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F37" s="3">
         <v>15496</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="3">
         <v>1649</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D38" s="5">
         <v>29561</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <v>13707</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F38" s="5">
         <v>13302</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G38" s="5">
         <v>1058</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D39" s="4">
         <v>30971</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E39" s="4">
         <v>13531</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F39" s="4">
         <v>11148</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G39" s="4">
         <v>808</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="11">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
         <v>2021</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>34497</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>14016</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>9978</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G40" s="7">
         <v>1197</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="9">
         <v>2021</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>37686</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>17005</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <v>13348</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G41" s="3">
         <v>1277</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
         <v>2021</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>37710</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E42" s="5">
         <v>18044</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F42" s="5">
         <v>13588</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G42" s="5">
         <v>1267</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>33750</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>19789</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F43" s="3">
         <v>13621</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G43" s="3">
         <v>1378</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <v>37947</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <v>25010</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <v>13741</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <v>1059</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="9">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>35914</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>22451</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F45" s="3">
         <v>14638</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G45" s="3">
         <v>1187</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <v>22949</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <v>16199</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <v>13843</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <v>1059</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>8646</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>7914</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F47" s="3">
         <v>12434</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G47" s="3">
         <v>997</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D48" s="5">
         <v>4261</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E48" s="5">
         <v>3948</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F48" s="5">
         <v>12412</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G48" s="5">
         <v>972</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="9">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D49" s="3">
         <v>4593</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E49" s="3">
         <v>4938</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F49" s="3">
         <v>14456</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>1209</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <v>2679</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <v>3031</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F50" s="5">
         <v>11868</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G50" s="5">
         <v>890</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D51" s="4">
         <v>1611</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E51" s="4">
         <v>1451</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F51" s="4">
         <v>8335</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G51" s="4">
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="11">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="11">
         <v>2020</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="7">
         <v>2470</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="7">
         <v>1164</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="7">
         <v>10463</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G52" s="7">
         <v>1409</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
         <v>2020</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>1796</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>776</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F53" s="3">
         <v>9968</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G53" s="3">
         <v>946</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="8">
         <v>2020</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <v>2341</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <v>1006</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <v>11419</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G54" s="5">
         <v>779</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>1805</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <v>1080</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F55" s="3">
         <v>9904</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G55" s="3">
         <v>663</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D56" s="5">
         <v>1251</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E56" s="5">
         <v>731</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <v>7354</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <v>616</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="9">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>114</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="3">
         <v>52</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>5012</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G57" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D58" s="5">
         <v>30</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E58" s="5">
         <v>8</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F58" s="5">
         <v>1683</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G58" s="5">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <v>27</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>23</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F59" s="3">
         <v>346</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60" s="5">
         <v>43</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60" s="5">
         <v>6</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60" s="5">
         <v>346</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="9">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D61" s="3">
         <v>8999</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <v>5377</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>10672</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G61" s="3">
         <v>1177</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <v>12796</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <v>6835</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F62" s="5">
         <v>10803</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G62" s="5">
         <v>1368</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D63" s="4">
         <v>11782</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <v>6655</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F63" s="4">
         <v>9385</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G63" s="4">
         <v>1073</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="11">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="11">
         <v>2019</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="7">
         <v>8853</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="7">
         <v>4169</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>10069</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G64" s="7">
         <v>2020</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
         <v>2019</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C65" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D65" s="3">
         <v>10821</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>5826</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F65" s="3">
         <v>11623</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G65" s="3">
         <v>1528</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="8">
         <v>2019</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D66" s="5">
         <v>12085</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E66" s="5">
         <v>6456</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F66" s="5">
         <v>13059</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G66" s="5">
         <v>1688</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <v>10354</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <v>5491</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F67" s="3">
         <v>10701</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G67" s="3">
         <v>1150</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <v>12571</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E68" s="5">
         <v>6159</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F68" s="5">
         <v>12065</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G68" s="5">
         <v>1391</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="9">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>17325</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>8283</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F69" s="3">
         <v>14287</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G69" s="3">
         <v>1994</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <v>16245</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <v>7479</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <v>10925</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <v>1410</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>18201</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <v>8505</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>13047</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>1547</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <v>16745</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <v>7823</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <v>11795</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G72" s="5">
         <v>1895</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="9">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>18680</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <v>8698</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F73" s="3">
         <v>10904</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G73" s="3">
         <v>1429</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D74" s="5">
         <v>19641</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="5">
         <v>8694</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F74" s="5">
         <v>9435</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G74" s="5">
         <v>1209</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D75" s="4">
         <v>18879</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <v>9175</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F75" s="4">
         <v>8943</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G75" s="4">
         <v>1179</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
         <v>2018</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <v>10474</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <v>5253</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <v>9205</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <v>1777</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="9">
         <v>2018</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D77" s="3">
         <v>15488</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="3">
         <v>7191</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F77" s="3">
         <v>14439</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G77" s="3">
         <v>2142</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
         <v>2018</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D78" s="5">
         <v>17364</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E78" s="5">
         <v>8327</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F78" s="5">
         <v>15919</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G78" s="5">
         <v>1884</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="9">
         <v>2018</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D79" s="3">
         <v>16637</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <v>7290</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F79" s="3">
         <v>13010</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G79" s="3">
         <v>1620</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>20125</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <v>8801</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <v>16023</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G80" s="5">
         <v>1599</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="9">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>19054</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="3">
         <v>8672</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F81" s="3">
         <v>17861</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G81" s="3">
         <v>1778</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D82" s="5">
         <v>17132</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E82" s="5">
         <v>7341</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F82" s="5">
         <v>9679</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G82" s="5">
         <v>1501</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="9">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D83" s="3">
         <v>18515</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E83" s="3">
         <v>7828</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F83" s="3">
         <v>8373</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G83" s="3">
         <v>1119</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="8">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>16794</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <v>7072</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <v>7578</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <v>1053</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="9">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D85" s="3">
         <v>15458</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <v>6314</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F85" s="3">
         <v>7412</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G85" s="3">
         <v>995</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <v>13619</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <v>5595</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <v>6470</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="5">
         <v>910</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="9">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D87" s="3">
         <v>14530</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E87" s="3">
         <v>6118</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F87" s="3">
         <v>5087</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G87" s="3">
         <v>1051</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>21</v>
       </c>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E766A0-8E4E-4E6E-A799-CB40174EF166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35E212-7232-447E-B244-31060BE7115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -117,19 +117,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
@@ -145,18 +139,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,71 +270,145 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="17" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -350,6 +434,20 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -361,9 +459,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -397,11 +496,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G87" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G87" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G88" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -641,1725 +739,1745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I90"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="7" width="9.875" customWidth="1"/>
+    <col min="1" max="2" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8603</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4032</v>
+      </c>
+      <c r="F6" s="11">
+        <v>15658</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5">
-        <v>9692</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4550</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D7" s="13">
+        <v>9681</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4534</v>
+      </c>
+      <c r="F7" s="13">
         <v>18603</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="13">
         <v>1890</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3">
-        <v>9018</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4096</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="D8" s="11">
+        <v>9015</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4095</v>
+      </c>
+      <c r="F8" s="11">
         <v>16205</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="11">
         <v>1532</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="13">
         <v>10804</v>
       </c>
-      <c r="E8" s="5">
-        <v>4975</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E9" s="13">
+        <v>4974</v>
+      </c>
+      <c r="F9" s="13">
         <v>17445</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="13">
         <v>1543</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>11877</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D10" s="11">
+        <v>11876</v>
+      </c>
+      <c r="E10" s="11">
         <v>5445</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="11">
         <v>19294</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="11">
         <v>1873</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="13">
         <v>11462</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="13">
         <v>4666</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="13">
         <v>17555</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="13">
         <v>1728</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
-        <v>13712</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7028</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D12" s="11">
+        <v>13711</v>
+      </c>
+      <c r="E12" s="11">
+        <v>7027</v>
+      </c>
+      <c r="F12" s="11">
         <v>16980</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="11">
         <v>2065</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
-        <v>15165</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D13" s="13">
+        <v>15163</v>
+      </c>
+      <c r="E13" s="13">
         <v>7794</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="13">
         <v>17877</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="13">
         <v>1889</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3">
-        <v>14590</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8379</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="D14" s="11">
+        <v>14585</v>
+      </c>
+      <c r="E14" s="11">
+        <v>8378</v>
+      </c>
+      <c r="F14" s="11">
         <v>12776</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="11">
         <v>1446</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5">
-        <v>16101</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10117</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D15" s="13">
+        <v>16097</v>
+      </c>
+      <c r="E15" s="13">
+        <v>10115</v>
+      </c>
+      <c r="F15" s="13">
         <v>14025</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="13">
         <v>1530</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
-        <v>16280</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10833</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D16" s="15">
+        <v>16277</v>
+      </c>
+      <c r="E16" s="15">
+        <v>10829</v>
+      </c>
+      <c r="F16" s="15">
         <v>14109</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="15">
         <v>1279</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
         <v>2023</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="17">
         <v>16074</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="17">
         <v>9632</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="17">
         <v>10246</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="17">
         <v>2076</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10">
         <v>2023</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="11">
         <v>17017</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18" s="11">
         <v>10716</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18" s="11">
         <v>18379</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="11">
         <v>2145</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="12">
         <v>2023</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="13">
         <v>18245</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="13">
         <v>12477</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="13">
         <v>18195</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="13">
         <v>2046</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="11">
         <v>18826</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="11">
         <v>13689</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="11">
         <v>17644</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="11">
         <v>1774</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="12">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D21" s="13">
         <v>18942</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="13">
         <v>15065</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="13">
         <v>18054</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="13">
         <v>1669</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="11">
         <v>17069</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="11">
         <v>13344</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="11">
         <v>18767</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="11">
         <v>1741</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="13">
         <v>16413</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E23" s="13">
         <v>11954</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="13">
         <v>18294</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="13">
         <v>1735</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D24" s="11">
         <v>20351</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E24" s="11">
         <v>13405</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F24" s="11">
         <v>17676</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G24" s="11">
         <v>1651</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="13">
         <v>16601</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="13">
         <v>9988</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="13">
         <v>14720</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="11">
         <v>22170</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="11">
         <v>12166</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F26" s="11">
         <v>17877</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="11">
         <v>1976</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="13">
         <v>19810</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="13">
         <v>10694</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="13">
         <v>15018</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="13">
         <v>1364</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="15">
         <v>20785</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="15">
         <v>11121</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="15">
         <v>13781</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="15">
         <v>1205</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="16">
         <v>2022</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="17">
         <v>15839</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="17">
         <v>8612</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="17">
         <v>8142</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="17">
         <v>1632</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="10">
         <v>2022</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="11">
         <v>14354</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E30" s="11">
         <v>6729</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F30" s="11">
         <v>11149</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="11">
         <v>1446</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="12">
         <v>2022</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="13">
         <v>14818</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="13">
         <v>7352</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="13">
         <v>10681</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G31" s="13">
         <v>1268</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="11">
         <v>23109</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="11">
         <v>12117</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="11">
         <v>14678</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="11">
         <v>1536</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="12">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="13">
         <v>25015</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="13">
         <v>11458</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="13">
         <v>16938</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="13">
         <v>1874</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="11">
         <v>12756</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E34" s="11">
         <v>6225</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="11">
         <v>9659</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G34" s="11">
         <v>809</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D35" s="13">
         <v>23787</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E35" s="13">
         <v>10984</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F35" s="13">
         <v>15887</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G35" s="13">
         <v>1588</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D36" s="11">
         <v>23831</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E36" s="11">
         <v>11116</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="11">
         <v>16025</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G36" s="11">
         <v>1326</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="13">
         <v>25871</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="13">
         <v>11168</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="13">
         <v>14111</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G37" s="13">
         <v>1231</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D38" s="11">
         <v>30033</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="11">
         <v>13257</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="11">
         <v>15496</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="11">
         <v>1649</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="13">
         <v>29561</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="13">
         <v>13707</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="13">
         <v>13302</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G39" s="13">
         <v>1058</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D40" s="15">
         <v>30971</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="15">
         <v>13531</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="15">
         <v>11148</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="15">
         <v>808</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="16">
         <v>2021</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="17">
         <v>34497</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="17">
         <v>14016</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="17">
         <v>9978</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="17">
         <v>1197</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="10">
         <v>2021</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="11">
         <v>37686</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="11">
         <v>17005</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F42" s="11">
         <v>13348</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G42" s="11">
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="12">
         <v>2021</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D43" s="13">
         <v>37710</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E43" s="13">
         <v>18044</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F43" s="13">
         <v>13588</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G43" s="13">
         <v>1267</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="11">
         <v>33750</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="11">
         <v>19789</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F44" s="11">
         <v>13621</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G44" s="11">
         <v>1378</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="12">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="13">
         <v>37947</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="13">
         <v>25010</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="13">
         <v>13741</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G45" s="13">
         <v>1059</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="11">
         <v>35914</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="11">
         <v>22451</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F46" s="11">
         <v>14638</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G46" s="11">
         <v>1187</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D47" s="13">
         <v>22949</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E47" s="13">
         <v>16199</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F47" s="13">
         <v>13843</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G47" s="13">
         <v>1059</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D48" s="11">
         <v>8646</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E48" s="11">
         <v>7914</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F48" s="11">
         <v>12434</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G48" s="11">
         <v>997</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="13">
         <v>4261</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="13">
         <v>3948</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="13">
         <v>12412</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="13">
         <v>972</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D50" s="11">
         <v>4593</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E50" s="11">
         <v>4938</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F50" s="11">
         <v>14456</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G50" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="13">
         <v>2679</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="13">
         <v>3031</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F51" s="13">
         <v>11868</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G51" s="13">
         <v>890</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D52" s="15">
         <v>1611</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="15">
         <v>1451</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="15">
         <v>8335</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="15">
         <v>580</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="11">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="16">
         <v>2020</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="17">
         <v>2470</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="17">
         <v>1164</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="17">
         <v>10463</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="17">
         <v>1409</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="10">
         <v>2020</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="11">
         <v>1796</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="11">
         <v>776</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="11">
         <v>9968</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="11">
         <v>946</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="12">
         <v>2020</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="13">
         <v>2341</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="13">
         <v>1006</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="13">
         <v>11419</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G55" s="13">
         <v>779</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="11">
         <v>1805</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="11">
         <v>1080</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F56" s="11">
         <v>9904</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G56" s="11">
         <v>663</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="12">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D57" s="13">
         <v>1251</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E57" s="13">
         <v>731</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F57" s="13">
         <v>7354</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G57" s="13">
         <v>616</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="11">
         <v>114</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="11">
         <v>52</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F58" s="11">
         <v>5012</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G58" s="11">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D59" s="13">
         <v>30</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="13">
         <v>8</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F59" s="13">
         <v>1683</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G59" s="13">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="11">
         <v>27</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="11">
         <v>23</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="11">
         <v>346</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G60" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="13">
         <v>43</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E61" s="13">
         <v>6</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F61" s="13">
         <v>346</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G61" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D62" s="11">
         <v>8999</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="11">
         <v>5377</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F62" s="11">
         <v>10672</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G62" s="11">
         <v>1177</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="13">
         <v>12796</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="13">
         <v>6835</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F63" s="13">
         <v>10803</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G63" s="13">
         <v>1368</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D64" s="15">
         <v>11782</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="15">
         <v>6655</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="15">
         <v>9385</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="15">
         <v>1073</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="11">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="16">
         <v>2019</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="17">
         <v>8853</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="17">
         <v>4169</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="17">
         <v>10069</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="17">
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10">
         <v>2019</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="11">
         <v>10821</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="11">
         <v>5826</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="11">
         <v>11623</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G66" s="11">
         <v>1528</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="12">
         <v>2019</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="13">
         <v>12085</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E67" s="13">
         <v>6456</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F67" s="13">
         <v>13059</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G67" s="13">
         <v>1688</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="11">
         <v>10354</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="11">
         <v>5491</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F68" s="11">
         <v>10701</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G68" s="11">
         <v>1150</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="12">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="13">
         <v>12571</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="13">
         <v>6159</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="13">
         <v>12065</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="13">
         <v>1391</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="11">
         <v>17325</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="11">
         <v>8283</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="11">
         <v>14287</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G70" s="11">
         <v>1994</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="13">
         <v>16245</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="13">
         <v>7479</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="13">
         <v>10925</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G71" s="13">
         <v>1410</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="11">
         <v>18201</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="11">
         <v>8505</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F72" s="11">
         <v>13047</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G72" s="11">
         <v>1547</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D73" s="13">
         <v>16745</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E73" s="13">
         <v>7823</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F73" s="13">
         <v>11795</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G73" s="13">
         <v>1895</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D74" s="11">
         <v>18680</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="11">
         <v>8698</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F74" s="11">
         <v>10904</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G74" s="11">
         <v>1429</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D75" s="13">
         <v>19641</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E75" s="13">
         <v>8694</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F75" s="13">
         <v>9435</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G75" s="13">
         <v>1209</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D76" s="15">
         <v>18879</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="15">
         <v>9175</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="15">
         <v>8943</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="15">
         <v>1179</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="12">
         <v>2018</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D77" s="13">
         <v>10474</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E77" s="13">
         <v>5253</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F77" s="13">
         <v>9205</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G77" s="13">
         <v>1777</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C78" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D78" s="11">
         <v>15488</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="11">
         <v>7191</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F78" s="11">
         <v>14439</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G78" s="11">
         <v>2142</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="12">
         <v>2018</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D79" s="13">
         <v>17364</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E79" s="13">
         <v>8327</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F79" s="13">
         <v>15919</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G79" s="13">
         <v>1884</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D80" s="11">
         <v>16637</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="11">
         <v>7290</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F80" s="11">
         <v>13010</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G80" s="11">
         <v>1620</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="8">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="12">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="13">
         <v>20125</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="13">
         <v>8801</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="13">
         <v>16023</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G81" s="13">
         <v>1599</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="9">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D82" s="11">
         <v>19054</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="11">
         <v>8672</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F82" s="11">
         <v>17861</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G82" s="11">
         <v>1778</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="8">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="12">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D83" s="13">
         <v>17132</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E83" s="13">
         <v>7341</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F83" s="13">
         <v>9679</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G83" s="13">
         <v>1501</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C84" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D84" s="11">
         <v>18515</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="11">
         <v>7828</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F84" s="11">
         <v>8373</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G84" s="11">
         <v>1119</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="8">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="12">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D85" s="13">
         <v>16794</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E85" s="13">
         <v>7072</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F85" s="13">
         <v>7578</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G85" s="13">
         <v>1053</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="9">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D86" s="11">
         <v>15458</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E86" s="11">
         <v>6314</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F86" s="11">
         <v>7412</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G86" s="11">
         <v>995</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="12">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D87" s="13">
         <v>13619</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E87" s="13">
         <v>5595</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F87" s="13">
         <v>6470</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G87" s="13">
         <v>910</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="9">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D88" s="11">
         <v>14530</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E88" s="11">
         <v>6118</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F88" s="11">
         <v>5087</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G88" s="11">
         <v>1051</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="2"/>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G91" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35E212-7232-447E-B244-31060BE7115B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF6D3D-BCA4-4FB8-A635-62EAF3484A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -279,12 +279,6 @@
     <xf numFmtId="17" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -314,6 +308,12 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G88" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G89" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,9 +739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +756,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
@@ -767,34 +767,34 @@
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -803,39 +803,39 @@
         <v>2024</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11">
+        <v>7452</v>
+      </c>
+      <c r="E6" s="11">
+        <v>3604</v>
+      </c>
+      <c r="F6" s="11">
+        <v>11667</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11">
-        <v>8603</v>
-      </c>
-      <c r="E6" s="11">
-        <v>4032</v>
-      </c>
-      <c r="F6" s="11">
-        <v>15658</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="13">
-        <v>9681</v>
-      </c>
-      <c r="E7" s="13">
-        <v>4534</v>
-      </c>
-      <c r="F7" s="13">
-        <v>18603</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1890</v>
+      <c r="D7" s="9">
+        <v>8586</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4016</v>
+      </c>
+      <c r="F7" s="9">
+        <v>18463</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2214</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
@@ -843,39 +843,39 @@
         <v>2024</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11">
+        <v>9677</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4531</v>
+      </c>
+      <c r="F8" s="11">
+        <v>21968</v>
+      </c>
+      <c r="G8" s="11">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
-        <v>9015</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D9" s="9">
+        <v>9012</v>
+      </c>
+      <c r="E9" s="9">
         <v>4095</v>
       </c>
-      <c r="F8" s="11">
-        <v>16205</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10804</v>
-      </c>
-      <c r="E9" s="13">
-        <v>4974</v>
-      </c>
-      <c r="F9" s="13">
-        <v>17445</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1543</v>
+      <c r="F9" s="9">
+        <v>19302</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1716</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
@@ -883,39 +883,39 @@
         <v>2024</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="11">
+        <v>10803</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4973</v>
+      </c>
+      <c r="F10" s="11">
+        <v>20839</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="9">
         <v>11876</v>
       </c>
-      <c r="E10" s="11">
-        <v>5445</v>
-      </c>
-      <c r="F10" s="11">
-        <v>19294</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13">
-        <v>11462</v>
-      </c>
-      <c r="E11" s="13">
-        <v>4666</v>
-      </c>
-      <c r="F11" s="13">
-        <v>17555</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1728</v>
+      <c r="E11" s="9">
+        <v>5444</v>
+      </c>
+      <c r="F11" s="9">
+        <v>23217</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2270</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
@@ -923,39 +923,39 @@
         <v>2024</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="11">
+        <v>11462</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4665</v>
+      </c>
+      <c r="F12" s="11">
+        <v>19842</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11">
-        <v>13711</v>
-      </c>
-      <c r="E12" s="11">
-        <v>7027</v>
-      </c>
-      <c r="F12" s="11">
-        <v>16980</v>
-      </c>
-      <c r="G12" s="11">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13">
-        <v>15163</v>
-      </c>
-      <c r="E13" s="13">
-        <v>7794</v>
-      </c>
-      <c r="F13" s="13">
-        <v>17877</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1889</v>
+      <c r="D13" s="9">
+        <v>13707</v>
+      </c>
+      <c r="E13" s="9">
+        <v>7024</v>
+      </c>
+      <c r="F13" s="9">
+        <v>21211</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2471</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.45">
@@ -963,119 +963,119 @@
         <v>2024</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15162</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7794</v>
+      </c>
+      <c r="F14" s="11">
+        <v>21104</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="9">
         <v>14585</v>
       </c>
-      <c r="E14" s="11">
-        <v>8378</v>
-      </c>
-      <c r="F14" s="11">
-        <v>12776</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="12">
+      <c r="E15" s="9">
+        <v>8377</v>
+      </c>
+      <c r="F15" s="9">
+        <v>17019</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13">
-        <v>16097</v>
-      </c>
-      <c r="E15" s="13">
-        <v>10115</v>
-      </c>
-      <c r="F15" s="13">
-        <v>14025</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+      <c r="D16" s="11">
+        <v>16096</v>
+      </c>
+      <c r="E16" s="11">
+        <v>10112</v>
+      </c>
+      <c r="F16" s="11">
+        <v>19211</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="15">
-        <v>16277</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D17" s="13">
+        <v>16275</v>
+      </c>
+      <c r="E17" s="13">
         <v>10829</v>
       </c>
-      <c r="F16" s="15">
-        <v>14109</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+      <c r="F17" s="13">
+        <v>16631</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="14">
         <v>2023</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D18" s="15">
         <v>16074</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="15">
         <v>9632</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="15">
         <v>10246</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="8">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="9">
         <v>17017</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="9">
         <v>10716</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="9">
         <v>18379</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="9">
         <v>2145</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13">
-        <v>18245</v>
-      </c>
-      <c r="E19" s="13">
-        <v>12477</v>
-      </c>
-      <c r="F19" s="13">
-        <v>18195</v>
-      </c>
-      <c r="G19" s="13">
-        <v>2046</v>
       </c>
     </row>
     <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1083,39 +1083,39 @@
         <v>2023</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="11">
+        <v>18245</v>
+      </c>
+      <c r="E20" s="11">
+        <v>12477</v>
+      </c>
+      <c r="F20" s="11">
+        <v>18195</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="9">
         <v>18826</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="9">
         <v>13689</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="9">
         <v>17644</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="9">
         <v>1774</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="13">
-        <v>18942</v>
-      </c>
-      <c r="E21" s="13">
-        <v>15065</v>
-      </c>
-      <c r="F21" s="13">
-        <v>18054</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1669</v>
       </c>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1123,39 +1123,39 @@
         <v>2023</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="11">
+        <v>18942</v>
+      </c>
+      <c r="E22" s="11">
+        <v>15065</v>
+      </c>
+      <c r="F22" s="11">
+        <v>18054</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="9">
         <v>17069</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="9">
         <v>13344</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="9">
         <v>18767</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="9">
         <v>1741</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="13">
-        <v>16413</v>
-      </c>
-      <c r="E23" s="13">
-        <v>11954</v>
-      </c>
-      <c r="F23" s="13">
-        <v>18294</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1735</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1163,39 +1163,39 @@
         <v>2023</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="11">
+        <v>16413</v>
+      </c>
+      <c r="E24" s="11">
+        <v>11954</v>
+      </c>
+      <c r="F24" s="11">
+        <v>18294</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="9">
         <v>20351</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="9">
         <v>13405</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="9">
         <v>17676</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="9">
         <v>1651</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13">
-        <v>16601</v>
-      </c>
-      <c r="E25" s="13">
-        <v>9988</v>
-      </c>
-      <c r="F25" s="13">
-        <v>14720</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1205</v>
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1203,119 +1203,119 @@
         <v>2023</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="11">
+        <v>16601</v>
+      </c>
+      <c r="E26" s="11">
+        <v>9988</v>
+      </c>
+      <c r="F26" s="11">
+        <v>14720</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="9">
         <v>22170</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="9">
         <v>12166</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="9">
         <v>17877</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="11">
         <v>19810</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="11">
         <v>10694</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="11">
         <v>15018</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="13">
         <v>20785</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="13">
         <v>11121</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="13">
         <v>13781</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G29" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="16">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="14">
         <v>2022</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="15">
         <v>15839</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="15">
         <v>8612</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="15">
         <v>8142</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="8">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="9">
         <v>14354</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="9">
         <v>6729</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="9">
         <v>11149</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="9">
         <v>1446</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="13">
-        <v>14818</v>
-      </c>
-      <c r="E31" s="13">
-        <v>7352</v>
-      </c>
-      <c r="F31" s="13">
-        <v>10681</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1268</v>
       </c>
     </row>
     <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1323,39 +1323,39 @@
         <v>2022</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11">
+        <v>14818</v>
+      </c>
+      <c r="E32" s="11">
+        <v>7352</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10681</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="9">
         <v>23109</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="9">
         <v>12117</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="9">
         <v>14678</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="9">
         <v>1536</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="13">
-        <v>25015</v>
-      </c>
-      <c r="E33" s="13">
-        <v>11458</v>
-      </c>
-      <c r="F33" s="13">
-        <v>16938</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1874</v>
       </c>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1363,39 +1363,39 @@
         <v>2022</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="11">
+        <v>25015</v>
+      </c>
+      <c r="E34" s="11">
+        <v>11458</v>
+      </c>
+      <c r="F34" s="11">
+        <v>16938</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="9">
         <v>12756</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="9">
         <v>6225</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="9">
         <v>9659</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="9">
         <v>809</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="13">
-        <v>23787</v>
-      </c>
-      <c r="E35" s="13">
-        <v>10984</v>
-      </c>
-      <c r="F35" s="13">
-        <v>15887</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1588</v>
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1403,39 +1403,39 @@
         <v>2022</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="11">
+        <v>23787</v>
+      </c>
+      <c r="E36" s="11">
+        <v>10984</v>
+      </c>
+      <c r="F36" s="11">
+        <v>15887</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="9">
         <v>23831</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="9">
         <v>11116</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="9">
         <v>16025</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="9">
         <v>1326</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="13">
-        <v>25871</v>
-      </c>
-      <c r="E37" s="13">
-        <v>11168</v>
-      </c>
-      <c r="F37" s="13">
-        <v>14111</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1231</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1443,119 +1443,119 @@
         <v>2022</v>
       </c>
       <c r="C38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="11">
+        <v>25871</v>
+      </c>
+      <c r="E38" s="11">
+        <v>11168</v>
+      </c>
+      <c r="F38" s="11">
+        <v>14111</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="9">
         <v>30033</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="9">
         <v>13257</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="9">
         <v>15496</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="12">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="11">
         <v>29561</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="11">
         <v>13707</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="11">
         <v>13302</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="13">
         <v>30971</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="13">
         <v>13531</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="13">
         <v>11148</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="16">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="14">
         <v>2021</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="15">
         <v>34497</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="15">
         <v>14016</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="15">
         <v>9978</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="8">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="9">
         <v>37686</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="9">
         <v>17005</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="9">
         <v>13348</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="9">
         <v>1277</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="13">
-        <v>37710</v>
-      </c>
-      <c r="E43" s="13">
-        <v>18044</v>
-      </c>
-      <c r="F43" s="13">
-        <v>13588</v>
-      </c>
-      <c r="G43" s="13">
-        <v>1267</v>
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1563,39 +1563,39 @@
         <v>2021</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="11">
+        <v>37710</v>
+      </c>
+      <c r="E44" s="11">
+        <v>18044</v>
+      </c>
+      <c r="F44" s="11">
+        <v>13588</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="9">
         <v>33750</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="9">
         <v>19789</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="9">
         <v>13621</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="9">
         <v>1378</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="13">
-        <v>37947</v>
-      </c>
-      <c r="E45" s="13">
-        <v>25010</v>
-      </c>
-      <c r="F45" s="13">
-        <v>13741</v>
-      </c>
-      <c r="G45" s="13">
-        <v>1059</v>
       </c>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1603,39 +1603,39 @@
         <v>2021</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="11">
+        <v>37947</v>
+      </c>
+      <c r="E46" s="11">
+        <v>25010</v>
+      </c>
+      <c r="F46" s="11">
+        <v>13741</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="9">
         <v>35914</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="9">
         <v>22451</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="9">
         <v>14638</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="9">
         <v>1187</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="13">
-        <v>22949</v>
-      </c>
-      <c r="E47" s="13">
-        <v>16199</v>
-      </c>
-      <c r="F47" s="13">
-        <v>13843</v>
-      </c>
-      <c r="G47" s="13">
-        <v>1059</v>
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1643,39 +1643,39 @@
         <v>2021</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="11">
+        <v>22949</v>
+      </c>
+      <c r="E48" s="11">
+        <v>16199</v>
+      </c>
+      <c r="F48" s="11">
+        <v>13843</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="9">
         <v>8646</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="9">
         <v>7914</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="9">
         <v>12434</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="9">
         <v>997</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="13">
-        <v>4261</v>
-      </c>
-      <c r="E49" s="13">
-        <v>3948</v>
-      </c>
-      <c r="F49" s="13">
-        <v>12412</v>
-      </c>
-      <c r="G49" s="13">
-        <v>972</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1683,119 +1683,119 @@
         <v>2021</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="11">
+        <v>4261</v>
+      </c>
+      <c r="E50" s="11">
+        <v>3948</v>
+      </c>
+      <c r="F50" s="11">
+        <v>12412</v>
+      </c>
+      <c r="G50" s="11">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="9">
         <v>4593</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="9">
         <v>4938</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="9">
         <v>14456</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="12">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="11">
         <v>2679</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="11">
         <v>3031</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="11">
         <v>11868</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="13">
         <v>1611</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="13">
         <v>1451</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="13">
         <v>8335</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G53" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="16">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="14">
         <v>2020</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D54" s="15">
         <v>2470</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="15">
         <v>1164</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="15">
         <v>10463</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="8">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="9">
         <v>1796</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="9">
         <v>776</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="9">
         <v>9968</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="9">
         <v>946</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="13">
-        <v>2341</v>
-      </c>
-      <c r="E55" s="13">
-        <v>1006</v>
-      </c>
-      <c r="F55" s="13">
-        <v>11419</v>
-      </c>
-      <c r="G55" s="13">
-        <v>779</v>
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1803,39 +1803,39 @@
         <v>2020</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2341</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1006</v>
+      </c>
+      <c r="F56" s="11">
+        <v>11419</v>
+      </c>
+      <c r="G56" s="11">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="9">
         <v>1805</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="9">
         <v>1080</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="9">
         <v>9904</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="9">
         <v>663</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1251</v>
-      </c>
-      <c r="E57" s="13">
-        <v>731</v>
-      </c>
-      <c r="F57" s="13">
-        <v>7354</v>
-      </c>
-      <c r="G57" s="13">
-        <v>616</v>
       </c>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1843,39 +1843,39 @@
         <v>2020</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1251</v>
+      </c>
+      <c r="E58" s="11">
+        <v>731</v>
+      </c>
+      <c r="F58" s="11">
+        <v>7354</v>
+      </c>
+      <c r="G58" s="11">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="9">
         <v>114</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="9">
         <v>52</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="9">
         <v>5012</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="9">
         <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="13">
-        <v>30</v>
-      </c>
-      <c r="E59" s="13">
-        <v>8</v>
-      </c>
-      <c r="F59" s="13">
-        <v>1683</v>
-      </c>
-      <c r="G59" s="13">
-        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1883,39 +1883,39 @@
         <v>2020</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="11">
+        <v>30</v>
+      </c>
+      <c r="E60" s="11">
+        <v>8</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1683</v>
+      </c>
+      <c r="G60" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="9">
         <v>27</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="9">
         <v>23</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="9">
         <v>346</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="9">
         <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="13">
-        <v>43</v>
-      </c>
-      <c r="E61" s="13">
-        <v>6</v>
-      </c>
-      <c r="F61" s="13">
-        <v>346</v>
-      </c>
-      <c r="G61" s="13">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -1923,119 +1923,119 @@
         <v>2020</v>
       </c>
       <c r="C62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="11">
+        <v>43</v>
+      </c>
+      <c r="E62" s="11">
+        <v>6</v>
+      </c>
+      <c r="F62" s="11">
+        <v>346</v>
+      </c>
+      <c r="G62" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="9">
         <v>8999</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="9">
         <v>5377</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="9">
         <v>10672</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="12">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="11">
         <v>12796</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="11">
         <v>6835</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="11">
         <v>10803</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="13">
         <v>11782</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="13">
         <v>6655</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="13">
         <v>9385</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G65" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="16">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="14">
         <v>2019</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C66" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D66" s="15">
         <v>8853</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="15">
         <v>4169</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="15">
         <v>10069</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="8">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="9">
         <v>10821</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="9">
         <v>5826</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="9">
         <v>11623</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="9">
         <v>1528</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="13">
-        <v>12085</v>
-      </c>
-      <c r="E67" s="13">
-        <v>6456</v>
-      </c>
-      <c r="F67" s="13">
-        <v>13059</v>
-      </c>
-      <c r="G67" s="13">
-        <v>1688</v>
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2043,39 +2043,39 @@
         <v>2019</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="11">
+        <v>12085</v>
+      </c>
+      <c r="E68" s="11">
+        <v>6456</v>
+      </c>
+      <c r="F68" s="11">
+        <v>13059</v>
+      </c>
+      <c r="G68" s="11">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="9">
         <v>10354</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="9">
         <v>5491</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="9">
         <v>10701</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="9">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="13">
-        <v>12571</v>
-      </c>
-      <c r="E69" s="13">
-        <v>6159</v>
-      </c>
-      <c r="F69" s="13">
-        <v>12065</v>
-      </c>
-      <c r="G69" s="13">
-        <v>1391</v>
       </c>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2083,39 +2083,39 @@
         <v>2019</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="11">
+        <v>12571</v>
+      </c>
+      <c r="E70" s="11">
+        <v>6159</v>
+      </c>
+      <c r="F70" s="11">
+        <v>12065</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="9">
         <v>17325</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="9">
         <v>8283</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="9">
         <v>14287</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="9">
         <v>1994</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="13">
-        <v>16245</v>
-      </c>
-      <c r="E71" s="13">
-        <v>7479</v>
-      </c>
-      <c r="F71" s="13">
-        <v>10925</v>
-      </c>
-      <c r="G71" s="13">
-        <v>1410</v>
       </c>
     </row>
     <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2123,39 +2123,39 @@
         <v>2019</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="11">
+        <v>16245</v>
+      </c>
+      <c r="E72" s="11">
+        <v>7479</v>
+      </c>
+      <c r="F72" s="11">
+        <v>10925</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="9">
         <v>18201</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="9">
         <v>8505</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="9">
         <v>13047</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="9">
         <v>1547</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="13">
-        <v>16745</v>
-      </c>
-      <c r="E73" s="13">
-        <v>7823</v>
-      </c>
-      <c r="F73" s="13">
-        <v>11795</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1895</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2163,79 +2163,79 @@
         <v>2019</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="11">
+        <v>16745</v>
+      </c>
+      <c r="E74" s="11">
+        <v>7823</v>
+      </c>
+      <c r="F74" s="11">
+        <v>11795</v>
+      </c>
+      <c r="G74" s="11">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="9">
         <v>18680</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="9">
         <v>8698</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="9">
         <v>10904</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="12">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="11">
         <v>19641</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="11">
         <v>8694</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="11">
         <v>9435</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="11">
         <v>1209</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="15">
-        <v>18879</v>
-      </c>
-      <c r="E76" s="15">
-        <v>9175</v>
-      </c>
-      <c r="F76" s="15">
-        <v>8943</v>
-      </c>
-      <c r="G76" s="15">
-        <v>1179</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" s="12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" s="13">
-        <v>10474</v>
+        <v>18879</v>
       </c>
       <c r="E77" s="13">
-        <v>5253</v>
+        <v>9175</v>
       </c>
       <c r="F77" s="13">
-        <v>9205</v>
+        <v>8943</v>
       </c>
       <c r="G77" s="13">
-        <v>1777</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2243,39 +2243,39 @@
         <v>2018</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="11">
+        <v>10474</v>
+      </c>
+      <c r="E78" s="11">
+        <v>5253</v>
+      </c>
+      <c r="F78" s="11">
+        <v>9205</v>
+      </c>
+      <c r="G78" s="11">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="9">
         <v>15488</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="9">
         <v>7191</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="9">
         <v>14439</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="9">
         <v>2142</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="13">
-        <v>17364</v>
-      </c>
-      <c r="E79" s="13">
-        <v>8327</v>
-      </c>
-      <c r="F79" s="13">
-        <v>15919</v>
-      </c>
-      <c r="G79" s="13">
-        <v>1884</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2283,39 +2283,39 @@
         <v>2018</v>
       </c>
       <c r="C80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="11">
+        <v>17364</v>
+      </c>
+      <c r="E80" s="11">
+        <v>8327</v>
+      </c>
+      <c r="F80" s="11">
+        <v>15919</v>
+      </c>
+      <c r="G80" s="11">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="9">
         <v>16637</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="9">
         <v>7290</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="9">
         <v>13010</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="9">
         <v>1620</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="13">
-        <v>20125</v>
-      </c>
-      <c r="E81" s="13">
-        <v>8801</v>
-      </c>
-      <c r="F81" s="13">
-        <v>16023</v>
-      </c>
-      <c r="G81" s="13">
-        <v>1599</v>
       </c>
     </row>
     <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2323,39 +2323,39 @@
         <v>2018</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="11">
+        <v>20125</v>
+      </c>
+      <c r="E82" s="11">
+        <v>8801</v>
+      </c>
+      <c r="F82" s="11">
+        <v>16023</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="9">
         <v>19054</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="9">
         <v>8672</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="9">
         <v>17861</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="9">
         <v>1778</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="13">
-        <v>17132</v>
-      </c>
-      <c r="E83" s="13">
-        <v>7341</v>
-      </c>
-      <c r="F83" s="13">
-        <v>9679</v>
-      </c>
-      <c r="G83" s="13">
-        <v>1501</v>
       </c>
     </row>
     <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2363,39 +2363,39 @@
         <v>2018</v>
       </c>
       <c r="C84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="11">
+        <v>17132</v>
+      </c>
+      <c r="E84" s="11">
+        <v>7341</v>
+      </c>
+      <c r="F84" s="11">
+        <v>9679</v>
+      </c>
+      <c r="G84" s="11">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="9">
         <v>18515</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="9">
         <v>7828</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="9">
         <v>8373</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="9">
         <v>1119</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="13">
-        <v>16794</v>
-      </c>
-      <c r="E85" s="13">
-        <v>7072</v>
-      </c>
-      <c r="F85" s="13">
-        <v>7578</v>
-      </c>
-      <c r="G85" s="13">
-        <v>1053</v>
       </c>
     </row>
     <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2403,39 +2403,39 @@
         <v>2018</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="11">
+        <v>16794</v>
+      </c>
+      <c r="E86" s="11">
+        <v>7072</v>
+      </c>
+      <c r="F86" s="11">
+        <v>7578</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="9">
         <v>15458</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="9">
         <v>6314</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="9">
         <v>7412</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="9">
         <v>995</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="12">
-        <v>2018</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="13">
-        <v>13619</v>
-      </c>
-      <c r="E87" s="13">
-        <v>5595</v>
-      </c>
-      <c r="F87" s="13">
-        <v>6470</v>
-      </c>
-      <c r="G87" s="13">
-        <v>910</v>
       </c>
     </row>
     <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
@@ -2443,34 +2443,54 @@
         <v>2018</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="11">
+        <v>13619</v>
+      </c>
+      <c r="E88" s="11">
+        <v>5595</v>
+      </c>
+      <c r="F88" s="11">
+        <v>6470</v>
+      </c>
+      <c r="G88" s="11">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="9">
         <v>14530</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="9">
         <v>6118</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="9">
         <v>5087</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G91" s="6"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDF6D3D-BCA4-4FB8-A635-62EAF3484A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B835B4E-9C43-404B-B3C6-DA8A1A70E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -267,12 +267,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,6 +325,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -414,13 +429,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -445,6 +453,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -496,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G89" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B5:G90" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I92"/>
+  <dimension ref="B2:I93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -799,1698 +814,1718 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="19">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20">
+        <v>9138</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5500</v>
+      </c>
+      <c r="F6" s="20">
+        <v>11937</v>
+      </c>
+      <c r="G6" s="20">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>7452</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>3604</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>11667</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="8">
         <v>2024</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="9">
         <v>8586</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>4016</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>18463</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>9677</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>4531</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>21968</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="8">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>9012</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>4095</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>19302</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>10803</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>4973</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>20839</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="8">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>11876</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>5444</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>23217</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>11462</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>4665</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>19842</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="8">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>13707</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>7024</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>21211</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>15162</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>7794</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>21104</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="8">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>14585</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>8377</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>17019</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>16096</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>10112</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>19211</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="12">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <v>16275</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>10829</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>16631</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="14">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>16074</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>9632</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>10246</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="8">
         <v>2023</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>17017</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>10716</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>18379</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>18245</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>12477</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>18195</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>18826</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>13689</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>17644</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>18942</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>15065</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>18054</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>17069</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>13344</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>18767</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>16413</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>11954</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>18294</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>20351</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>13405</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>17676</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>16601</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>9988</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>14720</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>22170</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>12166</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>17877</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>19810</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>10694</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>15018</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="12">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <v>20785</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>11121</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>13781</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="14">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <v>15839</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>8612</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>8142</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="8">
         <v>2022</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>14354</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>6729</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>11149</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>14818</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>7352</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>10681</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>23109</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>12117</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>14678</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>25015</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>11458</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>16938</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>12756</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>6225</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>9659</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>23787</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>10984</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>15887</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>23831</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>11116</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>16025</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>25871</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>11168</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>14111</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>30033</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>13257</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>15496</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>29561</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>13707</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>13302</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="12">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="13">
         <v>30971</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>13531</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>11148</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="14">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="15">
         <v>34497</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>14016</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>9978</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="8">
         <v>2021</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>37686</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>17005</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>13348</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>37710</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>18044</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>13588</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>33750</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>19789</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>13621</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>37947</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>25010</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>13741</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>35914</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>22451</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>14638</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>22949</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>16199</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>13843</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>8646</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>7914</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>12434</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>4261</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>3948</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>12412</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>4593</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>4938</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>14456</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>2679</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>3031</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>11868</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="12">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="13">
         <v>1611</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>1451</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>8335</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="14">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="15">
         <v>2470</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>1164</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>10463</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="8">
         <v>2020</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>1796</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>776</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>9968</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>2341</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>1006</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>11419</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>1805</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>1080</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>9904</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>1251</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>731</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>7354</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>114</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>52</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>5012</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>30</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>8</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>1683</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>27</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>23</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>346</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>43</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>6</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>346</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>8999</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>5377</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>10672</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>12796</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>6835</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>10803</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="12">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="13">
         <v>11782</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>6655</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>9385</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="14">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="15">
         <v>8853</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>4169</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>10069</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="8">
         <v>2019</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>10821</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>5826</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>11623</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>12085</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>6456</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>13059</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>10354</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>5491</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>10701</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>12571</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>6159</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>12065</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>17325</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>8283</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>14287</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>16245</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>7479</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>10925</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>18201</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>8505</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>13047</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>16745</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>7823</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>11795</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>18680</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>8698</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>10904</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>19641</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>8694</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>9435</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="12">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="13">
         <v>18879</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>9175</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>8943</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>10474</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>5253</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>9205</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="8">
         <v>2018</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>15488</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>7191</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>14439</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>17364</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>8327</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>15919</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>16637</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>7290</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>13010</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>20125</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>8801</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>16023</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="8">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>19054</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>8672</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>17861</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>17132</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>7341</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>9679</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>18515</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>7828</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>8373</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>16794</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>7072</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>7578</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>15458</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>6314</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>7412</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>13619</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>5595</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>6470</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="8">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>14530</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>6118</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>5087</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B835B4E-9C43-404B-B3C6-DA8A1A70E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89EE49-BEB0-4A7F-A8A1-44A3F2DE16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,23 +267,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,10 +314,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -428,6 +413,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -453,13 +445,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -511,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B5:G90" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G91" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -754,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="7" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="2" customWidth="1"/>
@@ -770,16 +755,16 @@
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="18">
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="17" t="s">
@@ -793,7 +778,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -813,1719 +798,1739 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="19">
+    <row r="6" spans="2:9">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9002</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5724</v>
+      </c>
+      <c r="F6" s="11">
+        <v>14300</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20">
-        <v>9138</v>
-      </c>
-      <c r="E6" s="20">
-        <v>5500</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D7" s="13">
+        <v>9116</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5482</v>
+      </c>
+      <c r="F7" s="13">
         <v>11937</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G7" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="2:9">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>7452</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>3604</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>11667</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="8">
+    <row r="9" spans="2:9">
+      <c r="B9" s="8">
         <v>2024</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>8586</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>4016</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>18463</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>9677</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>4531</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>21968</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="8">
+    <row r="11" spans="2:9">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>9012</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>4095</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>19302</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>10803</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>4973</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>20839</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="8">
+    <row r="13" spans="2:9">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>11876</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>5444</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>23217</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>11462</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>4665</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>19842</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="8">
+    <row r="15" spans="2:9">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>13707</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>7024</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>21211</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>15162</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>7794</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>21104</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>14585</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>8377</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>17019</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="10">
+    <row r="18" spans="2:7">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>16096</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>10112</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>19211</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
+    <row r="19" spans="2:7">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <v>16275</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>10829</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>16631</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <v>16074</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>9632</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>10246</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G20" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="8">
         <v>2023</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>17017</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>10716</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>18379</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>18245</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>12477</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>18195</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>18826</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>13689</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>17644</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>18942</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>15065</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>18054</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>17069</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>13344</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>18767</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>16413</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>11954</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>18294</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>20351</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>13405</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>17676</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>16601</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>9988</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>14720</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>22170</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>12166</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>17877</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="10">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>19810</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>10694</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>15018</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <v>20785</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>11121</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>13781</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="14">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <v>15839</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>8612</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>8142</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
         <v>2022</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>14354</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>6729</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>11149</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>14818</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>7352</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>10681</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>23109</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>12117</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>14678</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>25015</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>11458</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>16938</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>12756</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>6225</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>9659</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>23787</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>10984</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>15887</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>23831</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>11116</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>16025</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>25871</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>11168</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>14111</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>30033</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>13257</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>15496</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="10">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>29561</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>13707</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>13302</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <v>30971</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>13531</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>11148</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="14">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>34497</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>14016</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>9978</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G44" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="8">
         <v>2021</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>37686</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>17005</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>13348</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>37710</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>18044</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>13588</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>33750</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>19789</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>13621</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>37947</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>25010</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>13741</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>35914</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>22451</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>14638</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>22949</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>16199</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>13843</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>8646</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>7914</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>12434</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>4261</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>3948</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>12412</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>4593</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>4938</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>14456</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="10">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>2679</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>3031</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>11868</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <v>1611</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>1451</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>8335</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="14">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>2470</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>1164</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>10463</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="8">
         <v>2020</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>1796</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>776</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>9968</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>2341</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>1006</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>11419</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>1805</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>1080</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>9904</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>1251</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>731</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>7354</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>114</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>52</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>5012</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>30</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>8</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>1683</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>27</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>23</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>346</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>43</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>6</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>346</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>8999</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>5377</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>10672</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="10">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>12796</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>6835</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>10803</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <v>11782</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>6655</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>9385</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="14">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <v>8853</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>4169</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>10069</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="8">
         <v>2019</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>10821</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>5826</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>11623</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>12085</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>6456</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>13059</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>10354</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>5491</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>10701</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>12571</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>6159</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>12065</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>17325</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>8283</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>14287</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>16245</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>7479</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>10925</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>18201</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>8505</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>13047</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>16745</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>7823</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>11795</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>18680</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>8698</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>10904</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="10">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>19641</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>8694</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>9435</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="12">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <v>18879</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>9175</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>8943</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>10474</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>5253</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>9205</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="8">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="8">
         <v>2018</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>15488</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>7191</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>14439</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>17364</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>8327</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>15919</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="8">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>16637</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>7290</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>13010</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>20125</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>8801</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>16023</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="8">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>19054</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>8672</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>17861</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>17132</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>7341</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>9679</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>18515</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>7828</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>8373</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>16794</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>7072</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>7578</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="8">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>15458</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>6314</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>7412</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>13619</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>5595</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>6470</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="8">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>14530</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>6118</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>5087</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>1051</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="92" spans="2:7">
+      <c r="B92" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="2:7">
+      <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
       <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="G94" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89EE49-BEB0-4A7F-A8A1-44A3F2DE16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BA806-02E4-44ED-A943-878C104F9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G91" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G92" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I94"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -799,1738 +799,1758 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>10014</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6780</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12766</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="11">
-        <v>9002</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5724</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D7" s="11">
+        <v>8981</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5713</v>
+      </c>
+      <c r="F7" s="11">
         <v>14300</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>1367</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="12">
+    <row r="8" spans="2:9">
+      <c r="B8" s="12">
         <v>2025</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13">
-        <v>9116</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5482</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="D8" s="13">
+        <v>9111</v>
+      </c>
+      <c r="E8" s="13">
+        <v>5480</v>
+      </c>
+      <c r="F8" s="13">
         <v>11937</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>7452</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>3604</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>11667</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="8">
+    <row r="10" spans="2:9">
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>8586</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>4016</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>18463</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>9677</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>4531</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>21968</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="8">
+    <row r="12" spans="2:9">
+      <c r="B12" s="8">
         <v>2024</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>9012</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>4095</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>19302</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>10803</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>4973</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>20839</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="8">
+    <row r="14" spans="2:9">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>11876</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>5444</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>23217</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>11462</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>4665</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>19842</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="8">
+    <row r="16" spans="2:9">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>13707</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>7024</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>21211</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10">
+    <row r="17" spans="2:7">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>15162</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>7794</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>21104</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>14585</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>8377</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>17019</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>16096</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>10112</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>19211</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="12">
+    <row r="20" spans="2:7">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <v>16275</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>10829</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>16631</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="14">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>16074</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>9632</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>10246</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="8">
         <v>2023</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>17017</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>10716</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>18379</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>18245</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>12477</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>18195</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="8">
         <v>2023</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>18826</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>13689</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>17644</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>18942</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>15065</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>18054</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>17069</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>13344</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>18767</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>16413</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>11954</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>18294</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>20351</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>13405</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>17676</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>16601</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>9988</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>14720</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>22170</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>12166</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>17877</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>19810</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>10694</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>15018</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <v>20785</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>11121</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>13781</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <v>15839</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>8612</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>8142</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2022</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>14354</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>6729</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>11149</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>14818</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>7352</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>10681</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="8">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="8">
         <v>2022</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>23109</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>12117</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>14678</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>25015</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>11458</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>16938</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G37" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>12756</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>6225</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>9659</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>23787</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>10984</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>15887</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>23831</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>11116</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>16025</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>25871</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>11168</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>14111</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>30033</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>13257</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>15496</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>29561</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>13707</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>13302</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="13">
         <v>30971</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>13531</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>11148</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="14">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <v>34497</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>14016</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>9978</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="8">
         <v>2021</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>37686</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>17005</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>13348</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>37710</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>18044</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>13588</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="8">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="8">
         <v>2021</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="9">
         <v>33750</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>19789</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>13621</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>37947</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>25010</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>13741</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G49" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>35914</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>22451</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>14638</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>22949</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>16199</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>13843</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>8646</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>7914</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>12434</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>4261</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>3948</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>12412</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>4593</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>4938</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>14456</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>2679</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>3031</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>11868</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="13">
         <v>1611</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>1451</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>8335</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="14">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <v>2470</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>1164</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>10463</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="8">
         <v>2020</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>1796</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>776</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>9968</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>2341</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>1006</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>11419</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="8">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="8">
         <v>2020</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="9">
         <v>1805</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>1080</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>9904</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>1251</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>731</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>7354</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G61" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>114</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>52</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>5012</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>30</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>8</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>1683</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>27</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>23</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>346</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>43</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>6</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>346</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>8999</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>5377</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>10672</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>12796</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>6835</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>10803</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="13">
         <v>11782</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>6655</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>9385</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="14">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <v>8853</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>4169</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>10069</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="8">
         <v>2019</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>10821</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>5826</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>11623</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>12085</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>6456</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>13059</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="8">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="8">
         <v>2019</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="9">
         <v>10354</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>5491</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>10701</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>12571</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>6159</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>12065</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G73" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>17325</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>8283</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>14287</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>16245</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>7479</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>10925</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>18201</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>8505</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>13047</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>16745</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>7823</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>11795</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>18680</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>8698</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>10904</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>19641</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>8694</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>9435</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="13">
         <v>18879</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>9175</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>8943</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>10474</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>5253</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>9205</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="8">
         <v>2018</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>15488</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>7191</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>14439</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>17364</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>8327</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>15919</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="8">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="8">
         <v>2018</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D84" s="9">
         <v>16637</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>7290</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>13010</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G84" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>20125</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>8801</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>16023</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>19054</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>8672</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>17861</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>17132</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>7341</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>9679</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>18515</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>7828</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>8373</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>16794</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>7072</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>7578</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>15458</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>6314</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>7412</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>13619</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>5595</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>6470</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G91" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="8">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>14530</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>6118</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>5087</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="2:7">
       <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="G95" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BA806-02E4-44ED-A943-878C104F9936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1D70E6-07FD-4C99-98BC-C627C1F5410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G92" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G93" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I95"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -799,1758 +799,1778 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11">
+        <v>9777</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7179</v>
+      </c>
+      <c r="F6" s="11">
+        <v>14041</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
-        <v>10014</v>
-      </c>
-      <c r="E6" s="9">
-        <v>6780</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D7" s="9">
+        <v>10003</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6771</v>
+      </c>
+      <c r="F7" s="9">
         <v>12766</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>1565</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="10">
+    <row r="8" spans="2:9">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>8981</v>
       </c>
-      <c r="E7" s="11">
-        <v>5713</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E8" s="11">
+        <v>5711</v>
+      </c>
+      <c r="F8" s="11">
         <v>14300</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>1367</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="12">
+    <row r="9" spans="2:9">
+      <c r="B9" s="12">
         <v>2025</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="13">
-        <v>9111</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5480</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="D9" s="13">
+        <v>9110</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5479</v>
+      </c>
+      <c r="F9" s="13">
         <v>11937</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10">
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>7452</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>3604</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>11667</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="8">
+    <row r="11" spans="2:9">
+      <c r="B11" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>8586</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>4016</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>18463</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10">
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>9677</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>4531</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>21968</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="8">
+    <row r="13" spans="2:9">
+      <c r="B13" s="8">
         <v>2024</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="9">
         <v>9012</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>4095</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>19302</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>10803</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>4973</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>20839</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="8">
+    <row r="15" spans="2:9">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>11876</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>5444</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>23217</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>11462</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>4665</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>19842</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>13707</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>7024</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>21211</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="10">
+    <row r="18" spans="2:7">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>15162</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>7794</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>21104</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>14585</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>8377</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>17019</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="10">
+    <row r="20" spans="2:7">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>16096</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>10112</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>19211</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="12">
+    <row r="21" spans="2:7">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <v>16275</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>10829</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>16631</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="14">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <v>16074</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>9632</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <v>10246</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="8">
         <v>2023</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>17017</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>10716</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>18379</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="10">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>18245</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>12477</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>18195</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="8">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="8">
         <v>2023</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="9">
         <v>18826</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>13689</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>17644</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>18942</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>15065</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>18054</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>17069</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>13344</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>18767</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>16413</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>11954</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>18294</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>20351</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>13405</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>17676</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>16601</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>9988</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>14720</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>22170</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>12166</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>17877</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>19810</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>10694</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>15018</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <v>20785</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>11121</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>13781</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="14">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <v>15839</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>8612</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>8142</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="8">
         <v>2022</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>14354</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>6729</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>11149</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>14818</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>7352</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>10681</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="8">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="8">
         <v>2022</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="9">
         <v>23109</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>12117</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>14678</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>25015</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>11458</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>16938</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>12756</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>6225</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>9659</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>23787</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>10984</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>15887</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>23831</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>11116</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>16025</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>25871</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>11168</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>14111</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>30033</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>13257</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>15496</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>29561</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>13707</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>13302</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <v>30971</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>13531</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>11148</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="14">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <v>34497</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>14016</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>9978</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="8">
         <v>2021</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>37686</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>17005</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>13348</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>37710</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>18044</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>13588</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="8">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="8">
         <v>2021</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="9">
         <v>33750</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>19789</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>13621</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>37947</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>25010</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>13741</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>35914</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>22451</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>14638</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>22949</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>16199</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>13843</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>8646</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>7914</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>12434</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>4261</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>3948</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>12412</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>4593</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>4938</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>14456</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>2679</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>3031</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>11868</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <v>1611</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>1451</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>8335</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="14">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <v>2470</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>1164</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>10463</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="8">
         <v>2020</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>1796</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>776</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>9968</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>2341</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>1006</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>11419</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="8">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="8">
         <v>2020</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="9">
         <v>1805</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>1080</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>9904</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>1251</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>731</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>7354</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>114</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>52</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>5012</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>30</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>8</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>1683</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>27</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>23</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>346</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>43</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>6</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>346</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>8999</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>5377</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>10672</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>12796</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>6835</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>10803</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <v>11782</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>6655</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>9385</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="14">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="15">
         <v>8853</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>4169</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>10069</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="8">
         <v>2019</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>10821</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>5826</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>11623</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>12085</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>6456</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>13059</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="8">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="8">
         <v>2019</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>10354</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>5491</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>10701</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>12571</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>6159</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>12065</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>17325</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>8283</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>14287</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>16245</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>7479</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>10925</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>18201</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>8505</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>13047</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>16745</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>7823</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>11795</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>18680</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>8698</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>10904</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>19641</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>8694</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>9435</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <v>18879</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>9175</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>8943</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>10474</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>5253</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>9205</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="8">
         <v>2018</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>15488</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>7191</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>14439</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>17364</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>8327</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>15919</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="8">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="8">
         <v>2018</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="9">
         <v>16637</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>7290</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>13010</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G85" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>20125</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>8801</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>16023</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>19054</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>8672</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>17861</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>17132</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>7341</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>9679</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>18515</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>7828</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>8373</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>16794</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>7072</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>7578</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>15458</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>6314</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>7412</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>13619</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>5595</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>6470</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G92" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="8">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>14530</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>6118</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>5087</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G93" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="2:7">
       <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="G96" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1D70E6-07FD-4C99-98BC-C627C1F5410C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CFFB5F-4DFE-4773-B83D-B9579FEAB80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -413,13 +413,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -445,6 +438,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G93" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B5:G95" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I96"/>
+  <dimension ref="B2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -803,19 +803,19 @@
         <v>2025</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="11">
-        <v>9777</v>
+        <v>12220</v>
       </c>
       <c r="E6" s="11">
-        <v>7179</v>
+        <v>11916</v>
       </c>
       <c r="F6" s="11">
-        <v>14041</v>
+        <v>14047</v>
       </c>
       <c r="G6" s="11">
-        <v>1452</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -823,19 +823,19 @@
         <v>2025</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9">
-        <v>10003</v>
+        <v>10739</v>
       </c>
       <c r="E7" s="9">
-        <v>6771</v>
+        <v>10202</v>
       </c>
       <c r="F7" s="9">
-        <v>12766</v>
+        <v>12683</v>
       </c>
       <c r="G7" s="9">
-        <v>1565</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -843,79 +843,79 @@
         <v>2025</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="11">
-        <v>8981</v>
+        <v>10194</v>
       </c>
       <c r="E8" s="11">
-        <v>5711</v>
+        <v>7494</v>
       </c>
       <c r="F8" s="11">
-        <v>14300</v>
+        <v>14041</v>
       </c>
       <c r="G8" s="11">
-        <v>1367</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13">
-        <v>9110</v>
-      </c>
-      <c r="E9" s="13">
-        <v>5479</v>
-      </c>
-      <c r="F9" s="13">
-        <v>11937</v>
-      </c>
-      <c r="G9" s="13">
-        <v>992</v>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9994</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6760</v>
+      </c>
+      <c r="F9" s="9">
+        <v>12766</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1565</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="11">
-        <v>7452</v>
+        <v>8979</v>
       </c>
       <c r="E10" s="11">
-        <v>3604</v>
+        <v>5710</v>
       </c>
       <c r="F10" s="11">
-        <v>11667</v>
+        <v>14300</v>
       </c>
       <c r="G10" s="11">
-        <v>1585</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9">
-        <v>8586</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4016</v>
-      </c>
-      <c r="F11" s="9">
-        <v>18463</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2214</v>
+      <c r="B11" s="12">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="13">
+        <v>9110</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5476</v>
+      </c>
+      <c r="F11" s="13">
+        <v>11937</v>
+      </c>
+      <c r="G11" s="13">
+        <v>992</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -923,19 +923,19 @@
         <v>2024</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="11">
-        <v>9677</v>
+        <v>7452</v>
       </c>
       <c r="E12" s="11">
-        <v>4531</v>
+        <v>3604</v>
       </c>
       <c r="F12" s="11">
-        <v>21968</v>
+        <v>11667</v>
       </c>
       <c r="G12" s="11">
-        <v>2199</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -943,19 +943,19 @@
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" s="9">
-        <v>9012</v>
+        <v>8586</v>
       </c>
       <c r="E13" s="9">
-        <v>4095</v>
+        <v>4016</v>
       </c>
       <c r="F13" s="9">
-        <v>19302</v>
+        <v>18463</v>
       </c>
       <c r="G13" s="9">
-        <v>1716</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -963,19 +963,19 @@
         <v>2024</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11">
-        <v>10803</v>
+        <v>9677</v>
       </c>
       <c r="E14" s="11">
-        <v>4973</v>
+        <v>4531</v>
       </c>
       <c r="F14" s="11">
-        <v>20839</v>
+        <v>21968</v>
       </c>
       <c r="G14" s="11">
-        <v>1795</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -983,19 +983,19 @@
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="9">
-        <v>11876</v>
+        <v>9012</v>
       </c>
       <c r="E15" s="9">
-        <v>5444</v>
+        <v>4095</v>
       </c>
       <c r="F15" s="9">
-        <v>23217</v>
+        <v>19302</v>
       </c>
       <c r="G15" s="9">
-        <v>2270</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="16" spans="2:9">
@@ -1003,19 +1003,19 @@
         <v>2024</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="11">
-        <v>11462</v>
+        <v>10803</v>
       </c>
       <c r="E16" s="11">
-        <v>4665</v>
+        <v>4973</v>
       </c>
       <c r="F16" s="11">
-        <v>19842</v>
+        <v>20839</v>
       </c>
       <c r="G16" s="11">
-        <v>1850</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1023,19 +1023,19 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="9">
-        <v>13707</v>
+        <v>11876</v>
       </c>
       <c r="E17" s="9">
-        <v>7024</v>
+        <v>5444</v>
       </c>
       <c r="F17" s="9">
-        <v>21211</v>
+        <v>23217</v>
       </c>
       <c r="G17" s="9">
-        <v>2471</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1043,19 +1043,19 @@
         <v>2024</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="11">
-        <v>15162</v>
+        <v>11462</v>
       </c>
       <c r="E18" s="11">
-        <v>7794</v>
+        <v>4665</v>
       </c>
       <c r="F18" s="11">
-        <v>21104</v>
+        <v>19842</v>
       </c>
       <c r="G18" s="11">
-        <v>2217</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1063,19 +1063,19 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="9">
-        <v>14585</v>
+        <v>13707</v>
       </c>
       <c r="E19" s="9">
-        <v>8377</v>
+        <v>7024</v>
       </c>
       <c r="F19" s="9">
-        <v>17019</v>
+        <v>21211</v>
       </c>
       <c r="G19" s="9">
-        <v>1713</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1083,99 +1083,99 @@
         <v>2024</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15162</v>
+      </c>
+      <c r="E20" s="11">
+        <v>7794</v>
+      </c>
+      <c r="F20" s="11">
+        <v>21104</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9">
+        <v>14585</v>
+      </c>
+      <c r="E21" s="9">
+        <v>8377</v>
+      </c>
+      <c r="F21" s="9">
+        <v>17019</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>16096</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>10112</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F22" s="11">
         <v>19211</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="12">
+    <row r="23" spans="2:7">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D23" s="13">
         <v>16275</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E23" s="13">
         <v>10829</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F23" s="13">
         <v>16631</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G23" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="14">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D24" s="15">
         <v>16074</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E24" s="15">
         <v>9632</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F24" s="15">
         <v>10246</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G24" s="15">
         <v>2076</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="8">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="9">
-        <v>17017</v>
-      </c>
-      <c r="E23" s="9">
-        <v>10716</v>
-      </c>
-      <c r="F23" s="9">
-        <v>18379</v>
-      </c>
-      <c r="G23" s="9">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="11">
-        <v>18245</v>
-      </c>
-      <c r="E24" s="11">
-        <v>12477</v>
-      </c>
-      <c r="F24" s="11">
-        <v>18195</v>
-      </c>
-      <c r="G24" s="11">
-        <v>2046</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1">
@@ -1183,19 +1183,19 @@
         <v>2023</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="9">
-        <v>18826</v>
+        <v>17017</v>
       </c>
       <c r="E25" s="9">
-        <v>13689</v>
+        <v>10716</v>
       </c>
       <c r="F25" s="9">
-        <v>17644</v>
+        <v>18379</v>
       </c>
       <c r="G25" s="9">
-        <v>1774</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1">
@@ -1203,19 +1203,19 @@
         <v>2023</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="11">
-        <v>18942</v>
+        <v>18245</v>
       </c>
       <c r="E26" s="11">
-        <v>15065</v>
+        <v>12477</v>
       </c>
       <c r="F26" s="11">
-        <v>18054</v>
+        <v>18195</v>
       </c>
       <c r="G26" s="11">
-        <v>1669</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1">
@@ -1223,19 +1223,19 @@
         <v>2023</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" s="9">
-        <v>17069</v>
+        <v>18826</v>
       </c>
       <c r="E27" s="9">
-        <v>13344</v>
+        <v>13689</v>
       </c>
       <c r="F27" s="9">
-        <v>18767</v>
+        <v>17644</v>
       </c>
       <c r="G27" s="9">
-        <v>1741</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="28" spans="2:7" hidden="1">
@@ -1243,19 +1243,19 @@
         <v>2023</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="11">
-        <v>16413</v>
+        <v>18942</v>
       </c>
       <c r="E28" s="11">
-        <v>11954</v>
+        <v>15065</v>
       </c>
       <c r="F28" s="11">
-        <v>18294</v>
+        <v>18054</v>
       </c>
       <c r="G28" s="11">
-        <v>1735</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="29" spans="2:7" hidden="1">
@@ -1263,19 +1263,19 @@
         <v>2023</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="9">
-        <v>20351</v>
+        <v>17069</v>
       </c>
       <c r="E29" s="9">
-        <v>13405</v>
+        <v>13344</v>
       </c>
       <c r="F29" s="9">
-        <v>17676</v>
+        <v>18767</v>
       </c>
       <c r="G29" s="9">
-        <v>1651</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="30" spans="2:7" hidden="1">
@@ -1283,19 +1283,19 @@
         <v>2023</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="11">
-        <v>16601</v>
+        <v>16413</v>
       </c>
       <c r="E30" s="11">
-        <v>9988</v>
+        <v>11954</v>
       </c>
       <c r="F30" s="11">
-        <v>14720</v>
+        <v>18294</v>
       </c>
       <c r="G30" s="11">
-        <v>1205</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="31" spans="2:7" hidden="1">
@@ -1303,19 +1303,19 @@
         <v>2023</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="9">
-        <v>22170</v>
+        <v>20351</v>
       </c>
       <c r="E31" s="9">
-        <v>12166</v>
+        <v>13405</v>
       </c>
       <c r="F31" s="9">
-        <v>17877</v>
+        <v>17676</v>
       </c>
       <c r="G31" s="9">
-        <v>1976</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="32" spans="2:7" hidden="1">
@@ -1323,99 +1323,99 @@
         <v>2023</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="11">
+        <v>16601</v>
+      </c>
+      <c r="E32" s="11">
+        <v>9988</v>
+      </c>
+      <c r="F32" s="11">
+        <v>14720</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="9">
+        <v>22170</v>
+      </c>
+      <c r="E33" s="9">
+        <v>12166</v>
+      </c>
+      <c r="F33" s="9">
+        <v>17877</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>19810</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E34" s="11">
         <v>10694</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F34" s="11">
         <v>15018</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G34" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="12">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C35" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D35" s="13">
         <v>20785</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E35" s="13">
         <v>11121</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F35" s="13">
         <v>13781</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G35" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="14">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D36" s="15">
         <v>15839</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E36" s="15">
         <v>8612</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F36" s="15">
         <v>8142</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G36" s="15">
         <v>1632</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="8">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="9">
-        <v>14354</v>
-      </c>
-      <c r="E35" s="9">
-        <v>6729</v>
-      </c>
-      <c r="F35" s="9">
-        <v>11149</v>
-      </c>
-      <c r="G35" s="9">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="11">
-        <v>14818</v>
-      </c>
-      <c r="E36" s="11">
-        <v>7352</v>
-      </c>
-      <c r="F36" s="11">
-        <v>10681</v>
-      </c>
-      <c r="G36" s="11">
-        <v>1268</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1">
@@ -1423,19 +1423,19 @@
         <v>2022</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D37" s="9">
-        <v>23109</v>
+        <v>14354</v>
       </c>
       <c r="E37" s="9">
-        <v>12117</v>
+        <v>6729</v>
       </c>
       <c r="F37" s="9">
-        <v>14678</v>
+        <v>11149</v>
       </c>
       <c r="G37" s="9">
-        <v>1536</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -1443,19 +1443,19 @@
         <v>2022</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D38" s="11">
-        <v>25015</v>
+        <v>14818</v>
       </c>
       <c r="E38" s="11">
-        <v>11458</v>
+        <v>7352</v>
       </c>
       <c r="F38" s="11">
-        <v>16938</v>
+        <v>10681</v>
       </c>
       <c r="G38" s="11">
-        <v>1874</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1">
@@ -1463,19 +1463,19 @@
         <v>2022</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D39" s="9">
-        <v>12756</v>
+        <v>23109</v>
       </c>
       <c r="E39" s="9">
-        <v>6225</v>
+        <v>12117</v>
       </c>
       <c r="F39" s="9">
-        <v>9659</v>
+        <v>14678</v>
       </c>
       <c r="G39" s="9">
-        <v>809</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1">
@@ -1483,19 +1483,19 @@
         <v>2022</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="11">
-        <v>23787</v>
+        <v>25015</v>
       </c>
       <c r="E40" s="11">
-        <v>10984</v>
+        <v>11458</v>
       </c>
       <c r="F40" s="11">
-        <v>15887</v>
+        <v>16938</v>
       </c>
       <c r="G40" s="11">
-        <v>1588</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1">
@@ -1503,19 +1503,19 @@
         <v>2022</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D41" s="9">
-        <v>23831</v>
+        <v>12756</v>
       </c>
       <c r="E41" s="9">
-        <v>11116</v>
+        <v>6225</v>
       </c>
       <c r="F41" s="9">
-        <v>16025</v>
+        <v>9659</v>
       </c>
       <c r="G41" s="9">
-        <v>1326</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1">
@@ -1523,19 +1523,19 @@
         <v>2022</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="11">
-        <v>25871</v>
+        <v>23787</v>
       </c>
       <c r="E42" s="11">
-        <v>11168</v>
+        <v>10984</v>
       </c>
       <c r="F42" s="11">
-        <v>14111</v>
+        <v>15887</v>
       </c>
       <c r="G42" s="11">
-        <v>1231</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1">
@@ -1543,19 +1543,19 @@
         <v>2022</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="9">
-        <v>30033</v>
+        <v>23831</v>
       </c>
       <c r="E43" s="9">
-        <v>13257</v>
+        <v>11116</v>
       </c>
       <c r="F43" s="9">
-        <v>15496</v>
+        <v>16025</v>
       </c>
       <c r="G43" s="9">
-        <v>1649</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1">
@@ -1563,99 +1563,99 @@
         <v>2022</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="11">
+        <v>25871</v>
+      </c>
+      <c r="E44" s="11">
+        <v>11168</v>
+      </c>
+      <c r="F44" s="11">
+        <v>14111</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="9">
+        <v>30033</v>
+      </c>
+      <c r="E45" s="9">
+        <v>13257</v>
+      </c>
+      <c r="F45" s="9">
+        <v>15496</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D46" s="11">
         <v>29561</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E46" s="11">
         <v>13707</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F46" s="11">
         <v>13302</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G46" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="12">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D47" s="13">
         <v>30971</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E47" s="13">
         <v>13531</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F47" s="13">
         <v>11148</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G47" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="14">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D48" s="15">
         <v>34497</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E48" s="15">
         <v>14016</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F48" s="15">
         <v>9978</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G48" s="15">
         <v>1197</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="8">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="9">
-        <v>37686</v>
-      </c>
-      <c r="E47" s="9">
-        <v>17005</v>
-      </c>
-      <c r="F47" s="9">
-        <v>13348</v>
-      </c>
-      <c r="G47" s="9">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="11">
-        <v>37710</v>
-      </c>
-      <c r="E48" s="11">
-        <v>18044</v>
-      </c>
-      <c r="F48" s="11">
-        <v>13588</v>
-      </c>
-      <c r="G48" s="11">
-        <v>1267</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1">
@@ -1663,19 +1663,19 @@
         <v>2021</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="9">
-        <v>33750</v>
+        <v>37686</v>
       </c>
       <c r="E49" s="9">
-        <v>19789</v>
+        <v>17005</v>
       </c>
       <c r="F49" s="9">
-        <v>13621</v>
+        <v>13348</v>
       </c>
       <c r="G49" s="9">
-        <v>1378</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1">
@@ -1683,19 +1683,19 @@
         <v>2021</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="11">
-        <v>37947</v>
+        <v>37710</v>
       </c>
       <c r="E50" s="11">
-        <v>25010</v>
+        <v>18044</v>
       </c>
       <c r="F50" s="11">
-        <v>13741</v>
+        <v>13588</v>
       </c>
       <c r="G50" s="11">
-        <v>1059</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1">
@@ -1703,19 +1703,19 @@
         <v>2021</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" s="9">
-        <v>35914</v>
+        <v>33750</v>
       </c>
       <c r="E51" s="9">
-        <v>22451</v>
+        <v>19789</v>
       </c>
       <c r="F51" s="9">
-        <v>14638</v>
+        <v>13621</v>
       </c>
       <c r="G51" s="9">
-        <v>1187</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1">
@@ -1723,16 +1723,16 @@
         <v>2021</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="11">
-        <v>22949</v>
+        <v>37947</v>
       </c>
       <c r="E52" s="11">
-        <v>16199</v>
+        <v>25010</v>
       </c>
       <c r="F52" s="11">
-        <v>13843</v>
+        <v>13741</v>
       </c>
       <c r="G52" s="11">
         <v>1059</v>
@@ -1743,19 +1743,19 @@
         <v>2021</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D53" s="9">
-        <v>8646</v>
+        <v>35914</v>
       </c>
       <c r="E53" s="9">
-        <v>7914</v>
+        <v>22451</v>
       </c>
       <c r="F53" s="9">
-        <v>12434</v>
+        <v>14638</v>
       </c>
       <c r="G53" s="9">
-        <v>997</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1">
@@ -1763,19 +1763,19 @@
         <v>2021</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="11">
-        <v>4261</v>
+        <v>22949</v>
       </c>
       <c r="E54" s="11">
-        <v>3948</v>
+        <v>16199</v>
       </c>
       <c r="F54" s="11">
-        <v>12412</v>
+        <v>13843</v>
       </c>
       <c r="G54" s="11">
-        <v>972</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1">
@@ -1783,19 +1783,19 @@
         <v>2021</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D55" s="9">
-        <v>4593</v>
+        <v>8646</v>
       </c>
       <c r="E55" s="9">
-        <v>4938</v>
+        <v>7914</v>
       </c>
       <c r="F55" s="9">
-        <v>14456</v>
+        <v>12434</v>
       </c>
       <c r="G55" s="9">
-        <v>1209</v>
+        <v>997</v>
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1">
@@ -1803,99 +1803,99 @@
         <v>2021</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="11">
+        <v>4261</v>
+      </c>
+      <c r="E56" s="11">
+        <v>3948</v>
+      </c>
+      <c r="F56" s="11">
+        <v>12412</v>
+      </c>
+      <c r="G56" s="11">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="8">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="9">
+        <v>4593</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4938</v>
+      </c>
+      <c r="F57" s="9">
+        <v>14456</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D58" s="11">
         <v>2679</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E58" s="11">
         <v>3031</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F58" s="11">
         <v>11868</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G58" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="12">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D59" s="13">
         <v>1611</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E59" s="13">
         <v>1451</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F59" s="13">
         <v>8335</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G59" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="14">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D60" s="15">
         <v>2470</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E60" s="15">
         <v>1164</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F60" s="15">
         <v>10463</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G60" s="15">
         <v>1409</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="8">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="9">
-        <v>1796</v>
-      </c>
-      <c r="E59" s="9">
-        <v>776</v>
-      </c>
-      <c r="F59" s="9">
-        <v>9968</v>
-      </c>
-      <c r="G59" s="9">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="11">
-        <v>2341</v>
-      </c>
-      <c r="E60" s="11">
-        <v>1006</v>
-      </c>
-      <c r="F60" s="11">
-        <v>11419</v>
-      </c>
-      <c r="G60" s="11">
-        <v>779</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1">
@@ -1903,19 +1903,19 @@
         <v>2020</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" s="9">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="E61" s="9">
-        <v>1080</v>
+        <v>776</v>
       </c>
       <c r="F61" s="9">
-        <v>9904</v>
+        <v>9968</v>
       </c>
       <c r="G61" s="9">
-        <v>663</v>
+        <v>946</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1">
@@ -1923,19 +1923,19 @@
         <v>2020</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="11">
-        <v>1251</v>
+        <v>2341</v>
       </c>
       <c r="E62" s="11">
-        <v>731</v>
+        <v>1006</v>
       </c>
       <c r="F62" s="11">
-        <v>7354</v>
+        <v>11419</v>
       </c>
       <c r="G62" s="11">
-        <v>616</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1">
@@ -1943,19 +1943,19 @@
         <v>2020</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D63" s="9">
-        <v>114</v>
+        <v>1805</v>
       </c>
       <c r="E63" s="9">
-        <v>52</v>
+        <v>1080</v>
       </c>
       <c r="F63" s="9">
-        <v>5012</v>
+        <v>9904</v>
       </c>
       <c r="G63" s="9">
-        <v>358</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1">
@@ -1963,19 +1963,19 @@
         <v>2020</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="11">
-        <v>30</v>
+        <v>1251</v>
       </c>
       <c r="E64" s="11">
-        <v>8</v>
+        <v>731</v>
       </c>
       <c r="F64" s="11">
-        <v>1683</v>
+        <v>7354</v>
       </c>
       <c r="G64" s="11">
-        <v>158</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1">
@@ -1983,19 +1983,19 @@
         <v>2020</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D65" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E65" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F65" s="9">
-        <v>346</v>
+        <v>5012</v>
       </c>
       <c r="G65" s="9">
-        <v>12</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="2:7" hidden="1">
@@ -2003,19 +2003,19 @@
         <v>2020</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="11">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E66" s="11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" s="11">
-        <v>346</v>
+        <v>1683</v>
       </c>
       <c r="G66" s="11">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="2:7" hidden="1">
@@ -2023,19 +2023,19 @@
         <v>2020</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D67" s="9">
-        <v>8999</v>
+        <v>27</v>
       </c>
       <c r="E67" s="9">
-        <v>5377</v>
+        <v>23</v>
       </c>
       <c r="F67" s="9">
-        <v>10672</v>
+        <v>346</v>
       </c>
       <c r="G67" s="9">
-        <v>1177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1">
@@ -2043,99 +2043,99 @@
         <v>2020</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="11">
+        <v>43</v>
+      </c>
+      <c r="E68" s="11">
+        <v>6</v>
+      </c>
+      <c r="F68" s="11">
+        <v>346</v>
+      </c>
+      <c r="G68" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="8">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="9">
+        <v>8999</v>
+      </c>
+      <c r="E69" s="9">
+        <v>5377</v>
+      </c>
+      <c r="F69" s="9">
+        <v>10672</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D70" s="11">
         <v>12796</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E70" s="11">
         <v>6835</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F70" s="11">
         <v>10803</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G70" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="12">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D71" s="13">
         <v>11782</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E71" s="13">
         <v>6655</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F71" s="13">
         <v>9385</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G71" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="14">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D72" s="15">
         <v>8853</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E72" s="15">
         <v>4169</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F72" s="15">
         <v>10069</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G72" s="15">
         <v>2020</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="8">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="9">
-        <v>10821</v>
-      </c>
-      <c r="E71" s="9">
-        <v>5826</v>
-      </c>
-      <c r="F71" s="9">
-        <v>11623</v>
-      </c>
-      <c r="G71" s="9">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="11">
-        <v>12085</v>
-      </c>
-      <c r="E72" s="11">
-        <v>6456</v>
-      </c>
-      <c r="F72" s="11">
-        <v>13059</v>
-      </c>
-      <c r="G72" s="11">
-        <v>1688</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1">
@@ -2143,19 +2143,19 @@
         <v>2019</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D73" s="9">
-        <v>10354</v>
+        <v>10821</v>
       </c>
       <c r="E73" s="9">
-        <v>5491</v>
+        <v>5826</v>
       </c>
       <c r="F73" s="9">
-        <v>10701</v>
+        <v>11623</v>
       </c>
       <c r="G73" s="9">
-        <v>1150</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1">
@@ -2163,19 +2163,19 @@
         <v>2019</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="11">
-        <v>12571</v>
+        <v>12085</v>
       </c>
       <c r="E74" s="11">
-        <v>6159</v>
+        <v>6456</v>
       </c>
       <c r="F74" s="11">
-        <v>12065</v>
+        <v>13059</v>
       </c>
       <c r="G74" s="11">
-        <v>1391</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1">
@@ -2183,19 +2183,19 @@
         <v>2019</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D75" s="9">
-        <v>17325</v>
+        <v>10354</v>
       </c>
       <c r="E75" s="9">
-        <v>8283</v>
+        <v>5491</v>
       </c>
       <c r="F75" s="9">
-        <v>14287</v>
+        <v>10701</v>
       </c>
       <c r="G75" s="9">
-        <v>1994</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1">
@@ -2203,19 +2203,19 @@
         <v>2019</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D76" s="11">
-        <v>16245</v>
+        <v>12571</v>
       </c>
       <c r="E76" s="11">
-        <v>7479</v>
+        <v>6159</v>
       </c>
       <c r="F76" s="11">
-        <v>10925</v>
+        <v>12065</v>
       </c>
       <c r="G76" s="11">
-        <v>1410</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1">
@@ -2223,19 +2223,19 @@
         <v>2019</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D77" s="9">
-        <v>18201</v>
+        <v>17325</v>
       </c>
       <c r="E77" s="9">
-        <v>8505</v>
+        <v>8283</v>
       </c>
       <c r="F77" s="9">
-        <v>13047</v>
+        <v>14287</v>
       </c>
       <c r="G77" s="9">
-        <v>1547</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1">
@@ -2243,19 +2243,19 @@
         <v>2019</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78" s="11">
-        <v>16745</v>
+        <v>16245</v>
       </c>
       <c r="E78" s="11">
-        <v>7823</v>
+        <v>7479</v>
       </c>
       <c r="F78" s="11">
-        <v>11795</v>
+        <v>10925</v>
       </c>
       <c r="G78" s="11">
-        <v>1895</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1">
@@ -2263,19 +2263,19 @@
         <v>2019</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D79" s="9">
-        <v>18680</v>
+        <v>18201</v>
       </c>
       <c r="E79" s="9">
-        <v>8698</v>
+        <v>8505</v>
       </c>
       <c r="F79" s="9">
-        <v>10904</v>
+        <v>13047</v>
       </c>
       <c r="G79" s="9">
-        <v>1429</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1">
@@ -2283,79 +2283,79 @@
         <v>2019</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D80" s="11">
-        <v>19641</v>
+        <v>16745</v>
       </c>
       <c r="E80" s="11">
-        <v>8694</v>
+        <v>7823</v>
       </c>
       <c r="F80" s="11">
-        <v>9435</v>
+        <v>11795</v>
       </c>
       <c r="G80" s="11">
-        <v>1209</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="12">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="13">
-        <v>18879</v>
-      </c>
-      <c r="E81" s="13">
-        <v>9175</v>
-      </c>
-      <c r="F81" s="13">
-        <v>8943</v>
-      </c>
-      <c r="G81" s="13">
-        <v>1179</v>
+      <c r="C81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="9">
+        <v>18680</v>
+      </c>
+      <c r="E81" s="9">
+        <v>8698</v>
+      </c>
+      <c r="F81" s="9">
+        <v>10904</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1429</v>
       </c>
     </row>
     <row r="82" spans="2:7" hidden="1">
       <c r="B82" s="10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" s="11">
-        <v>10474</v>
+        <v>19641</v>
       </c>
       <c r="E82" s="11">
-        <v>5253</v>
+        <v>8694</v>
       </c>
       <c r="F82" s="11">
-        <v>9205</v>
+        <v>9435</v>
       </c>
       <c r="G82" s="11">
-        <v>1777</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="8">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="9">
-        <v>15488</v>
-      </c>
-      <c r="E83" s="9">
-        <v>7191</v>
-      </c>
-      <c r="F83" s="9">
-        <v>14439</v>
-      </c>
-      <c r="G83" s="9">
-        <v>2142</v>
+      <c r="B83" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="13">
+        <v>18879</v>
+      </c>
+      <c r="E83" s="13">
+        <v>9175</v>
+      </c>
+      <c r="F83" s="13">
+        <v>8943</v>
+      </c>
+      <c r="G83" s="13">
+        <v>1179</v>
       </c>
     </row>
     <row r="84" spans="2:7" hidden="1">
@@ -2363,19 +2363,19 @@
         <v>2018</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="11">
-        <v>17364</v>
+        <v>10474</v>
       </c>
       <c r="E84" s="11">
-        <v>8327</v>
+        <v>5253</v>
       </c>
       <c r="F84" s="11">
-        <v>15919</v>
+        <v>9205</v>
       </c>
       <c r="G84" s="11">
-        <v>1884</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="85" spans="2:7" hidden="1">
@@ -2383,19 +2383,19 @@
         <v>2018</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D85" s="9">
-        <v>16637</v>
+        <v>15488</v>
       </c>
       <c r="E85" s="9">
-        <v>7290</v>
+        <v>7191</v>
       </c>
       <c r="F85" s="9">
-        <v>13010</v>
+        <v>14439</v>
       </c>
       <c r="G85" s="9">
-        <v>1620</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="86" spans="2:7" hidden="1">
@@ -2403,19 +2403,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="11">
-        <v>20125</v>
+        <v>17364</v>
       </c>
       <c r="E86" s="11">
-        <v>8801</v>
+        <v>8327</v>
       </c>
       <c r="F86" s="11">
-        <v>16023</v>
+        <v>15919</v>
       </c>
       <c r="G86" s="11">
-        <v>1599</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="87" spans="2:7" hidden="1">
@@ -2423,19 +2423,19 @@
         <v>2018</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D87" s="9">
-        <v>19054</v>
+        <v>16637</v>
       </c>
       <c r="E87" s="9">
-        <v>8672</v>
+        <v>7290</v>
       </c>
       <c r="F87" s="9">
-        <v>17861</v>
+        <v>13010</v>
       </c>
       <c r="G87" s="9">
-        <v>1778</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="88" spans="2:7" hidden="1">
@@ -2443,19 +2443,19 @@
         <v>2018</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="11">
-        <v>17132</v>
+        <v>20125</v>
       </c>
       <c r="E88" s="11">
-        <v>7341</v>
+        <v>8801</v>
       </c>
       <c r="F88" s="11">
-        <v>9679</v>
+        <v>16023</v>
       </c>
       <c r="G88" s="11">
-        <v>1501</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="89" spans="2:7" hidden="1">
@@ -2463,19 +2463,19 @@
         <v>2018</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D89" s="9">
-        <v>18515</v>
+        <v>19054</v>
       </c>
       <c r="E89" s="9">
-        <v>7828</v>
+        <v>8672</v>
       </c>
       <c r="F89" s="9">
-        <v>8373</v>
+        <v>17861</v>
       </c>
       <c r="G89" s="9">
-        <v>1119</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="90" spans="2:7" hidden="1">
@@ -2483,19 +2483,19 @@
         <v>2018</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D90" s="11">
-        <v>16794</v>
+        <v>17132</v>
       </c>
       <c r="E90" s="11">
-        <v>7072</v>
+        <v>7341</v>
       </c>
       <c r="F90" s="11">
-        <v>7578</v>
+        <v>9679</v>
       </c>
       <c r="G90" s="11">
-        <v>1053</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="91" spans="2:7" hidden="1">
@@ -2503,19 +2503,19 @@
         <v>2018</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" s="9">
-        <v>15458</v>
+        <v>18515</v>
       </c>
       <c r="E91" s="9">
-        <v>6314</v>
+        <v>7828</v>
       </c>
       <c r="F91" s="9">
-        <v>7412</v>
+        <v>8373</v>
       </c>
       <c r="G91" s="9">
-        <v>995</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="92" spans="2:7" hidden="1">
@@ -2523,19 +2523,19 @@
         <v>2018</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D92" s="11">
-        <v>13619</v>
+        <v>16794</v>
       </c>
       <c r="E92" s="11">
-        <v>5595</v>
+        <v>7072</v>
       </c>
       <c r="F92" s="11">
-        <v>6470</v>
+        <v>7578</v>
       </c>
       <c r="G92" s="11">
-        <v>910</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="93" spans="2:7" hidden="1">
@@ -2543,34 +2543,74 @@
         <v>2018</v>
       </c>
       <c r="C93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="9">
+        <v>15458</v>
+      </c>
+      <c r="E93" s="9">
+        <v>6314</v>
+      </c>
+      <c r="F93" s="9">
+        <v>7412</v>
+      </c>
+      <c r="G93" s="9">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="11">
+        <v>13619</v>
+      </c>
+      <c r="E94" s="11">
+        <v>5595</v>
+      </c>
+      <c r="F94" s="11">
+        <v>6470</v>
+      </c>
+      <c r="G94" s="11">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D95" s="9">
         <v>14530</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E95" s="9">
         <v>6118</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F95" s="9">
         <v>5087</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G95" s="9">
         <v>1051</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="2" t="s">
+    <row r="96" spans="2:7">
+      <c r="B96" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="2" t="s">
+    <row r="97" spans="2:7">
+      <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="G96" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="G98" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CFFB5F-4DFE-4773-B83D-B9579FEAB80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D4EB75-4161-46E7-86FC-EC0BCC184C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_16.1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -413,6 +413,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -438,13 +445,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B5:G95" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G96" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I98"/>
+  <dimension ref="B2:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -799,1818 +799,1838 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15526</v>
+      </c>
+      <c r="E6" s="9">
+        <v>14904</v>
+      </c>
+      <c r="F6" s="9">
+        <v>13638</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
-        <v>12220</v>
-      </c>
-      <c r="E6" s="11">
-        <v>11916</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="D7" s="11">
+        <v>12199</v>
+      </c>
+      <c r="E7" s="11">
+        <v>11889</v>
+      </c>
+      <c r="F7" s="11">
         <v>14047</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>1529</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="8">
+    <row r="8" spans="2:9">
+      <c r="B8" s="8">
         <v>2025</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9">
-        <v>10739</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10202</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D8" s="9">
+        <v>10734</v>
+      </c>
+      <c r="E8" s="9">
+        <v>10198</v>
+      </c>
+      <c r="F8" s="9">
         <v>12683</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="10">
+    <row r="9" spans="2:9">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11">
-        <v>10194</v>
-      </c>
-      <c r="E8" s="11">
-        <v>7494</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="D9" s="11">
+        <v>10193</v>
+      </c>
+      <c r="E9" s="11">
+        <v>7491</v>
+      </c>
+      <c r="F9" s="11">
         <v>14041</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>1452</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="8">
+    <row r="10" spans="2:9">
+      <c r="B10" s="8">
         <v>2025</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
-        <v>9994</v>
-      </c>
-      <c r="E9" s="9">
-        <v>6760</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D10" s="9">
+        <v>9991</v>
+      </c>
+      <c r="E10" s="9">
+        <v>6756</v>
+      </c>
+      <c r="F10" s="9">
         <v>12766</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="9">
         <v>1565</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9">
+      <c r="B11" s="10">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="11">
-        <v>8979</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5710</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="D11" s="11">
+        <v>8976</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5709</v>
+      </c>
+      <c r="F11" s="11">
         <v>14300</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>1367</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="12">
+    <row r="12" spans="2:9">
+      <c r="B12" s="12">
         <v>2025</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13">
-        <v>9110</v>
-      </c>
-      <c r="E11" s="13">
-        <v>5476</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D12" s="13">
+        <v>9105</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5474</v>
+      </c>
+      <c r="F12" s="13">
         <v>11937</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>7452</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>3604</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>11667</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G13" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="8">
+    <row r="14" spans="2:9">
+      <c r="B14" s="8">
         <v>2024</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="9">
         <v>8586</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>4016</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>18463</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>9677</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>4531</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>21968</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G15" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="8">
+    <row r="16" spans="2:9">
+      <c r="B16" s="8">
         <v>2024</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="9">
         <v>9012</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>4095</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>19302</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="10">
+    <row r="17" spans="2:7">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>10803</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>4973</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>20839</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G17" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="8">
+    <row r="18" spans="2:7">
+      <c r="B18" s="8">
         <v>2024</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="9">
         <v>11876</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>5444</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>23217</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>11462</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>4665</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>19842</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="8">
+    <row r="20" spans="2:7">
+      <c r="B20" s="8">
         <v>2024</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>13707</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>7024</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>21211</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>15162</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>7794</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>21104</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="8">
+    <row r="22" spans="2:7">
+      <c r="B22" s="8">
         <v>2024</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>14585</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>8377</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>17019</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7">
+      <c r="B23" s="10">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>16096</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>10112</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>19211</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G23" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="12">
+    <row r="24" spans="2:7">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <v>16275</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>10829</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>16631</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="14">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>16074</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>9632</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <v>10246</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="8">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="8">
         <v>2023</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="9">
         <v>17017</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>10716</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>18379</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>18245</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>12477</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>18195</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G27" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="8">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="8">
         <v>2023</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="9">
         <v>18826</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>13689</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>17644</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>18942</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>15065</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>18054</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G29" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="8">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="8">
         <v>2023</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>17069</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>13344</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>18767</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>16413</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>11954</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>18294</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G31" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="8">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="8">
         <v>2023</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="9">
         <v>20351</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>13405</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>17676</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>16601</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>9988</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>14720</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G33" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="8">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="8">
         <v>2023</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="9">
         <v>22170</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>12166</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>17877</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>19810</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>10694</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>15018</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G35" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>20785</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>11121</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>13781</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>15839</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>8612</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>8142</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="8">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="8">
         <v>2022</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="9">
         <v>14354</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>6729</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>11149</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>14818</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>7352</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>10681</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G39" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="8">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="8">
         <v>2022</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="9">
         <v>23109</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>12117</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>14678</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>25015</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>11458</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>16938</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G41" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="8">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="8">
         <v>2022</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="9">
         <v>12756</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>6225</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>9659</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>23787</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>10984</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>15887</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G43" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="8">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="8">
         <v>2022</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>23831</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>11116</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>16025</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>25871</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>11168</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>14111</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G45" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="8">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="8">
         <v>2022</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>30033</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>13257</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>15496</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>29561</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>13707</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>13302</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G47" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="13">
         <v>30971</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>13531</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>11148</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <v>34497</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>14016</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>9978</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="8">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="8">
         <v>2021</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="9">
         <v>37686</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>17005</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>13348</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>37710</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>18044</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>13588</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="8">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="8">
         <v>2021</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="9">
         <v>33750</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>19789</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>13621</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>37947</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>25010</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>13741</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G53" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="8">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="8">
         <v>2021</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="9">
         <v>35914</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>22451</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>14638</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>22949</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>16199</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>13843</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G55" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="8">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="8">
         <v>2021</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="9">
         <v>8646</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>7914</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>12434</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>4261</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>3948</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>12412</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G57" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="8">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="8">
         <v>2021</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="9">
         <v>4593</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>4938</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>14456</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>2679</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>3031</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>11868</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G59" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="13">
         <v>1611</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>1451</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>8335</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <v>2470</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>1164</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>10463</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="8">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="8">
         <v>2020</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="9">
         <v>1796</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>776</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>9968</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>2341</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>1006</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>11419</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G63" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="8">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="8">
         <v>2020</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="9">
         <v>1805</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>1080</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>9904</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>1251</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>731</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>7354</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G65" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="8">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="8">
         <v>2020</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="9">
         <v>114</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>52</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>5012</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>30</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>8</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>1683</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G67" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="8">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="8">
         <v>2020</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="9">
         <v>27</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>23</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>346</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>43</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>6</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>346</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G69" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="8">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="8">
         <v>2020</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="9">
         <v>8999</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>5377</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>10672</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>12796</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>6835</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>10803</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G71" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="13">
         <v>11782</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>6655</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>9385</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <v>8853</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>4169</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>10069</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="8">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="8">
         <v>2019</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="9">
         <v>10821</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>5826</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>11623</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>12085</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>6456</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>13059</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G75" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="8">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="8">
         <v>2019</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="9">
         <v>10354</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>5491</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>10701</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>12571</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>6159</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>12065</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G77" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="8">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="8">
         <v>2019</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="9">
         <v>17325</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>8283</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>14287</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>16245</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>7479</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>10925</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G79" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="8">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="8">
         <v>2019</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C80" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="9">
         <v>18201</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>8505</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>13047</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>16745</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>7823</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>11795</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G81" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="8">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="8">
         <v>2019</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="9">
         <v>18680</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>8698</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>10904</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>19641</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>8694</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>9435</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G83" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <v>18879</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>9175</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>8943</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>10474</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>5253</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>9205</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G85" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="8">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="8">
         <v>2018</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D86" s="9">
         <v>15488</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>7191</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>14439</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G86" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>17364</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>8327</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>15919</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G87" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="8">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="8">
         <v>2018</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D88" s="9">
         <v>16637</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>7290</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>13010</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G88" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>20125</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>8801</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>16023</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G89" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="8">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="8">
         <v>2018</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D90" s="9">
         <v>19054</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>8672</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>17861</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G90" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="10">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="10">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>17132</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>7341</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>9679</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G91" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="8">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="8">
         <v>2018</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D92" s="9">
         <v>18515</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>7828</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>8373</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G92" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="10">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="10">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>16794</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>7072</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>7578</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G93" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1">
-      <c r="B93" s="8">
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="8">
         <v>2018</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D94" s="9">
         <v>15458</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E94" s="9">
         <v>6314</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F94" s="9">
         <v>7412</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G94" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1">
-      <c r="B94" s="10">
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="10">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>13619</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E95" s="11">
         <v>5595</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F95" s="11">
         <v>6470</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G95" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1">
-      <c r="B95" s="8">
+    <row r="96" spans="2:7" hidden="1">
+      <c r="B96" s="8">
         <v>2018</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D96" s="9">
         <v>14530</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E96" s="9">
         <v>6118</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F96" s="9">
         <v>5087</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G96" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="2:7">
       <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="G99" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Procesos_AF.xlsx
+++ b/Procesos_AF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Autotransporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D4EB75-4161-46E7-86FC-EC0BCC184C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8E173-1232-4994-9C61-517E5BC155C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="23">
   <si>
     <t>Tramites de Licencias</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Fuente: SICT. Subsecretaria de Comunicaciones y Transportes. Dirección General de Autotransporte Federal.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -496,8 +496,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G96" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}" name="Tabla1" displayName="Tabla1" ref="B5:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G97" xr:uid="{EA1FF7FD-DDD6-406D-BEAA-8100933AE58A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -739,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I99"/>
+  <dimension ref="B2:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -799,1838 +799,1858 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15738</v>
+      </c>
+      <c r="E6" s="11">
+        <v>14922</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12038</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="8">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
-        <v>15526</v>
-      </c>
-      <c r="E6" s="9">
-        <v>14904</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D7" s="9">
+        <v>15515</v>
+      </c>
+      <c r="E7" s="9">
+        <v>14894</v>
+      </c>
+      <c r="F7" s="9">
         <v>13638</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>1685</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="10">
+    <row r="8" spans="2:9">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>12199</v>
       </c>
-      <c r="E7" s="11">
-        <v>11889</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E8" s="11">
+        <v>11882</v>
+      </c>
+      <c r="F8" s="11">
         <v>14047</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G8" s="11">
         <v>1529</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="8">
+    <row r="9" spans="2:9">
+      <c r="B9" s="8">
         <v>2025</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9">
-        <v>10734</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D9" s="9">
+        <v>10733</v>
+      </c>
+      <c r="E9" s="9">
         <v>10198</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>12683</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="10">
+    <row r="10" spans="2:9">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
-        <v>10193</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D10" s="11">
+        <v>10192</v>
+      </c>
+      <c r="E10" s="11">
         <v>7491</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>14041</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G10" s="11">
         <v>1452</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="8">
+    <row r="11" spans="2:9">
+      <c r="B11" s="8">
         <v>2025</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="9">
         <v>9991</v>
       </c>
-      <c r="E10" s="9">
-        <v>6756</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E11" s="9">
+        <v>6755</v>
+      </c>
+      <c r="F11" s="9">
         <v>12766</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>1565</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="10">
+    <row r="12" spans="2:9">
+      <c r="B12" s="10">
         <v>2025</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>8976</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>5709</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>14300</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>1367</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="12">
+    <row r="13" spans="2:9">
+      <c r="B13" s="12">
         <v>2025</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>9105</v>
       </c>
-      <c r="E12" s="13">
-        <v>5474</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E13" s="13">
+        <v>5473</v>
+      </c>
+      <c r="F13" s="13">
         <v>11937</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>992</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>7452</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>3604</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>11667</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>1585</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="8">
+    <row r="15" spans="2:9">
+      <c r="B15" s="8">
         <v>2024</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>8586</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>4016</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>18463</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>2214</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="10">
+    <row r="16" spans="2:9">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>9677</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>4531</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>21968</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>2199</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="8">
+    <row r="17" spans="2:7">
+      <c r="B17" s="8">
         <v>2024</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="9">
         <v>9012</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>4095</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>19302</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>1716</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="10">
+    <row r="18" spans="2:7">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>10803</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>4973</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>20839</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>1795</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="8">
+    <row r="19" spans="2:7">
+      <c r="B19" s="8">
         <v>2024</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>11876</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>5444</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>23217</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="9">
         <v>2270</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="10">
+    <row r="20" spans="2:7">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>11462</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>4665</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>19842</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>1850</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="8">
+    <row r="21" spans="2:7">
+      <c r="B21" s="8">
         <v>2024</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>13707</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>7024</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>21211</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>2471</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="10">
+    <row r="22" spans="2:7">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>15162</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>7794</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>21104</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>2217</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="8">
+    <row r="23" spans="2:7">
+      <c r="B23" s="8">
         <v>2024</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="9">
         <v>14585</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>8377</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>17019</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="9">
         <v>1713</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="10">
+    <row r="24" spans="2:7">
+      <c r="B24" s="10">
         <v>2024</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>16096</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>10112</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>19211</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>1815</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="12">
+    <row r="25" spans="2:7">
+      <c r="B25" s="12">
         <v>2024</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <v>16275</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>10829</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>16631</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>1407</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="14">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="15">
         <v>16074</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>9632</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="15">
         <v>10246</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="15">
         <v>2076</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="8">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="8">
         <v>2023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>17017</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>10716</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>18379</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>2145</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>18245</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>12477</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>18195</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>2046</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="8">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="8">
         <v>2023</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>18826</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>13689</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>17644</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>1774</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>18942</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>15065</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>18054</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>1669</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="8">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="8">
         <v>2023</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="9">
         <v>17069</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>13344</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>18767</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>1741</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>16413</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>11954</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>18294</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>1735</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="8">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="8">
         <v>2023</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="9">
         <v>20351</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>13405</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>17676</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>1651</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>16601</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>9988</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>14720</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>1205</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="8">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="8">
         <v>2023</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="9">
         <v>22170</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>12166</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>17877</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>1976</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="10">
         <v>2023</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>19810</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>10694</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>15018</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>1364</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="12">
         <v>2023</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>20785</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>11121</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>13781</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>1205</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="14">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <v>15839</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>8612</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>8142</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="15">
         <v>1632</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="8">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="8">
         <v>2022</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>14354</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>6729</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>11149</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="9">
         <v>1446</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>14818</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>7352</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>10681</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>1268</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="8">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="8">
         <v>2022</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="9">
         <v>23109</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>12117</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>14678</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>1536</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>25015</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>11458</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>16938</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>1874</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="8">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="8">
         <v>2022</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="9">
         <v>12756</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>6225</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>9659</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>809</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>23787</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>10984</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>15887</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>1588</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="8">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="8">
         <v>2022</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="9">
         <v>23831</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>11116</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>16025</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>1326</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>25871</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>11168</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>14111</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>1231</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="8">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="8">
         <v>2022</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>30033</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>13257</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>15496</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>1649</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="10">
         <v>2022</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>29561</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>13707</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>13302</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>1058</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="12">
         <v>2022</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <v>30971</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>13531</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>11148</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>808</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="14">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="15">
         <v>34497</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>14016</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>9978</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="15">
         <v>1197</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="8">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="8">
         <v>2021</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="9">
         <v>37686</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>17005</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>13348</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="9">
         <v>1277</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>37710</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>18044</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>13588</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>1267</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="8">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="8">
         <v>2021</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="9">
         <v>33750</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>19789</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>13621</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="9">
         <v>1378</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>37947</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>25010</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>13741</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="8">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="8">
         <v>2021</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="9">
         <v>35914</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>22451</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>14638</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G55" s="9">
         <v>1187</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>22949</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>16199</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>13843</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>1059</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="8">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="8">
         <v>2021</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="9">
         <v>8646</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>7914</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>12434</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="9">
         <v>997</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>4261</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>3948</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>12412</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>972</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="8">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="8">
         <v>2021</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="9">
         <v>4593</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>4938</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>14456</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>1209</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="10">
         <v>2021</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>2679</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>3031</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>11868</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>890</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="12">
         <v>2021</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>1611</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>1451</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>8335</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="14">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="15">
         <v>2470</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>1164</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>10463</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="15">
         <v>1409</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="8">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="8">
         <v>2020</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="9">
         <v>1796</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>776</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>9968</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="9">
         <v>946</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>2341</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>1006</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>11419</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>779</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="8">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="8">
         <v>2020</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="9">
         <v>1805</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>1080</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>9904</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="9">
         <v>663</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>1251</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>731</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>7354</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="8">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="8">
         <v>2020</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="9">
         <v>114</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>52</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>5012</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>30</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>8</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>1683</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="8">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="8">
         <v>2020</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="9">
         <v>27</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>23</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>346</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>43</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>6</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>346</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="8">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="8">
         <v>2020</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="9">
         <v>8999</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>5377</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>10672</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="9">
         <v>1177</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="10">
         <v>2020</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>12796</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>6835</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>10803</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>1368</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="12">
         <v>2020</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <v>11782</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>6655</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>9385</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>1073</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="14">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="15">
         <v>8853</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>4169</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>10069</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="15">
         <v>2020</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="8">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="8">
         <v>2019</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <v>10821</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>5826</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>11623</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="9">
         <v>1528</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>12085</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>6456</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>13059</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>1688</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="8">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="8">
         <v>2019</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="9">
         <v>10354</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>5491</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>10701</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="9">
         <v>1150</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>12571</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>6159</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>12065</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>1391</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="8">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="8">
         <v>2019</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="9">
         <v>17325</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>8283</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>14287</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="9">
         <v>1994</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="10">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>16245</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>7479</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>10925</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>1410</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="8">
+    <row r="81" spans="2:7" hidden="1">
+      <c r="B81" s="8">
         <v>2019</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="9">
         <v>18201</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>8505</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>13047</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="9">
         <v>1547</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1">
-      <c r="B81" s="10">
+    <row r="82" spans="2:7" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>16745</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>7823</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>11795</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>1895</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1">
-      <c r="B82" s="8">
+    <row r="83" spans="2:7" hidden="1">
+      <c r="B83" s="8">
         <v>2019</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>18680</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>8698</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>10904</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G83" s="9">
         <v>1429</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7" hidden="1">
+      <c r="B84" s="10">
         <v>2019</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>19641</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>8694</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>9435</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>1209</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1">
-      <c r="B84" s="12">
+    <row r="85" spans="2:7" hidden="1">
+      <c r="B85" s="12">
         <v>2019</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <v>18879</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>9175</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>8943</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>1179</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7" hidden="1">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>10474</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>5253</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>9205</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>1777</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1">
-      <c r="B86" s="8">
+    <row r="87" spans="2:7" hidden="1">
+      <c r="B87" s="8">
         <v>2018</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="9">
         <v>15488</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>7191</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>14439</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G87" s="9">
         <v>2142</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1">
-      <c r="B87" s="10">
+    <row r="88" spans="2:7" hidden="1">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>17364</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>8327</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>15919</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G88" s="11">
         <v>1884</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1">
-      <c r="B88" s="8">
+    <row r="89" spans="2:7" hidden="1">
+      <c r="B89" s="8">
         <v>2018</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D89" s="9">
         <v>16637</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>7290</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>13010</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G89" s="9">
         <v>1620</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1">
-      <c r="B89" s="10">
+    <row r="90" spans="2:7" hidden="1">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>20125</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>8801</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>16023</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G90" s="11">
         <v>1599</v>
       </c>
     </row>
-    <row r="90" spans="2:7" hidden="1">
-      <c r="B90" s="8">
+    <row r="91" spans="2:7" hidden="1">
+      <c r="B91" s="8">
         <v>2018</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D91" s="9">
         <v>19054</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>8672</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>17861</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G91" s="9">
         <v>1778</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1">
-      <c r="B91" s="10">
+    <row r="92" spans="2:7" hidden="1">
+      <c r="B92" s="10">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>17132</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>7341</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>9679</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G92" s="11">
         <v>1501</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1">
-      <c r="B92" s="8">
+    <row r="93" spans="2:7" hidden="1">
+      <c r="B93" s="8">
         <v>2018</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D93" s="9">
         <v>18515</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>7828</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>8373</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G93" s="9">
         <v>1119</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1">
-      <c r="B93" s="10">
+    <row r="94" spans="2:7" hidden="1">
+      <c r="B94" s="10">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>16794</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E94" s="11">
         <v>7072</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F94" s="11">
         <v>7578</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G94" s="11">
         <v>1053</v>
       </c>
     </row>
-    <row r="94" spans="2:7" hidden="1">
-      <c r="B94" s="8">
+    <row r="95" spans="2:7" hidden="1">
+      <c r="B95" s="8">
         <v>2018</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D95" s="9">
         <v>15458</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E95" s="9">
         <v>6314</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F95" s="9">
         <v>7412</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G95" s="9">
         <v>995</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1">
-      <c r="B95" s="10">
+    <row r="96" spans="2:7" hidden="1">
+      <c r="B96" s="10">
         <v>2018</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <v>13619</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E96" s="11">
         <v>5595</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F96" s="11">
         <v>6470</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G96" s="11">
         <v>910</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1">
-      <c r="B96" s="8">
+    <row r="97" spans="2:7" hidden="1">
+      <c r="B97" s="8">
         <v>2018</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D97" s="9">
         <v>14530</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E97" s="9">
         <v>6118</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F97" s="9">
         <v>5087</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G97" s="9">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="2:7">
       <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="G100" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
